--- a/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報新規登録.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報新規登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A910F69-69B5-41D9-9C20-6DDE7E772C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA299B10-59FC-4411-9DF1-A576835561EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>雇用保険画面へ遷移される</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>employeeテーブル</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -272,6 +268,19 @@
   </si>
   <si>
     <t>テストデータno.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録完了とメッセージ表示する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1069,6 +1078,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="27" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1126,6 +1147,174 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1159,187 +1348,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1737,16 +1746,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -1754,20 +1763,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -1792,58 +1801,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="51"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="55"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="58"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="57"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="61"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -1868,58 +1877,58 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="59"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="63"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="43"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="47"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="50"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2171,13 +2180,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="20">
         <v>45441</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -2263,7 +2272,7 @@
   <dimension ref="A1:BM21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+      <selection activeCell="AK12" sqref="AK12:AX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -2342,710 +2351,710 @@
       <c r="BM1" s="30"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
       <c r="BM2" s="30"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65" t="s">
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="127" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="70" t="s">
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="111"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="111"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="111"/>
+      <c r="AJ4" s="111"/>
+      <c r="AK4" s="111"/>
+      <c r="AL4" s="111"/>
+      <c r="AM4" s="111"/>
+      <c r="AN4" s="111"/>
+      <c r="AO4" s="111"/>
+      <c r="AP4" s="111"/>
+      <c r="AQ4" s="111"/>
+      <c r="AR4" s="111"/>
+      <c r="AS4" s="111"/>
+      <c r="AT4" s="111"/>
+      <c r="AU4" s="111"/>
+      <c r="AV4" s="131"/>
+      <c r="AW4" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="110">
+        <v>45096</v>
+      </c>
+      <c r="BA4" s="111"/>
+      <c r="BB4" s="111"/>
+      <c r="BC4" s="111"/>
+      <c r="BD4" s="111"/>
+      <c r="BE4" s="111"/>
+      <c r="BF4" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG4" s="108"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="75"/>
-      <c r="AZ4" s="76">
-        <v>45096</v>
-      </c>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG4" s="74"/>
-      <c r="BH4" s="75"/>
-      <c r="BI4" s="76" t="s">
+      <c r="BJ4" s="111"/>
+      <c r="BK4" s="111"/>
+      <c r="BL4" s="111"/>
+      <c r="BM4" s="32"/>
+    </row>
+    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="118"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="118"/>
+      <c r="AB5" s="118"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="118"/>
+      <c r="AF5" s="118"/>
+      <c r="AG5" s="118"/>
+      <c r="AH5" s="118"/>
+      <c r="AI5" s="118"/>
+      <c r="AJ5" s="118"/>
+      <c r="AK5" s="118"/>
+      <c r="AL5" s="118"/>
+      <c r="AM5" s="118"/>
+      <c r="AN5" s="118"/>
+      <c r="AO5" s="118"/>
+      <c r="AP5" s="118"/>
+      <c r="AQ5" s="118"/>
+      <c r="AR5" s="118"/>
+      <c r="AS5" s="118"/>
+      <c r="AT5" s="118"/>
+      <c r="AU5" s="118"/>
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="114"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="114"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="118"/>
+      <c r="BK5" s="118"/>
+      <c r="BL5" s="118"/>
+      <c r="BM5" s="25"/>
+    </row>
+    <row r="7" spans="1:65" s="33" customFormat="1">
+      <c r="A7" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="96"/>
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="96"/>
+      <c r="AM7" s="96"/>
+      <c r="AN7" s="96"/>
+      <c r="AO7" s="96"/>
+      <c r="AP7" s="96"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="96"/>
+      <c r="AS7" s="96"/>
+      <c r="AT7" s="96"/>
+      <c r="AU7" s="96"/>
+      <c r="AV7" s="96"/>
+      <c r="AW7" s="96"/>
+      <c r="AX7" s="97"/>
+      <c r="AY7" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ7" s="96"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="96"/>
+      <c r="BC7" s="96"/>
+      <c r="BD7" s="97"/>
+      <c r="BE7" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF7" s="96"/>
+      <c r="BG7" s="96"/>
+      <c r="BH7" s="96"/>
+      <c r="BI7" s="97"/>
+      <c r="BJ7" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK7" s="96"/>
+      <c r="BL7" s="96"/>
+      <c r="BM7" s="97"/>
+    </row>
+    <row r="8" spans="1:65">
+      <c r="A8" s="98">
+        <v>1</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="32"/>
-    </row>
-    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="83"/>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="83"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="83"/>
-      <c r="AP5" s="83"/>
-      <c r="AQ5" s="83"/>
-      <c r="AR5" s="83"/>
-      <c r="AS5" s="83"/>
-      <c r="AT5" s="83"/>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="78"/>
-      <c r="BA5" s="78"/>
-      <c r="BB5" s="78"/>
-      <c r="BC5" s="78"/>
-      <c r="BD5" s="78"/>
-      <c r="BE5" s="78"/>
-      <c r="BF5" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG5" s="78"/>
-      <c r="BH5" s="79"/>
-      <c r="BI5" s="78"/>
-      <c r="BJ5" s="83"/>
-      <c r="BK5" s="83"/>
-      <c r="BL5" s="83"/>
-      <c r="BM5" s="25"/>
-    </row>
-    <row r="7" spans="1:65" s="33" customFormat="1">
-      <c r="A7" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL7" s="101"/>
-      <c r="AM7" s="101"/>
-      <c r="AN7" s="101"/>
-      <c r="AO7" s="101"/>
-      <c r="AP7" s="101"/>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="101"/>
-      <c r="AS7" s="101"/>
-      <c r="AT7" s="101"/>
-      <c r="AU7" s="101"/>
-      <c r="AV7" s="101"/>
-      <c r="AW7" s="101"/>
-      <c r="AX7" s="102"/>
-      <c r="AY7" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ7" s="101"/>
-      <c r="BA7" s="101"/>
-      <c r="BB7" s="101"/>
-      <c r="BC7" s="101"/>
-      <c r="BD7" s="102"/>
-      <c r="BE7" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF7" s="101"/>
-      <c r="BG7" s="101"/>
-      <c r="BH7" s="101"/>
-      <c r="BI7" s="102"/>
-      <c r="BJ7" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK7" s="101"/>
-      <c r="BL7" s="101"/>
-      <c r="BM7" s="102"/>
-    </row>
-    <row r="8" spans="1:65">
-      <c r="A8" s="103">
-        <v>1</v>
-      </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="68"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="68"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="104"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="105"/>
+      <c r="BE8" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="70">
+        <v>45441</v>
+      </c>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="69"/>
+    </row>
+    <row r="9" spans="1:65" ht="42" customHeight="1">
+      <c r="A9" s="90">
+        <v>2</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="98" t="s">
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL9" s="68"/>
+      <c r="AM9" s="68"/>
+      <c r="AN9" s="68"/>
+      <c r="AO9" s="68"/>
+      <c r="AP9" s="68"/>
+      <c r="AQ9" s="68"/>
+      <c r="AR9" s="68"/>
+      <c r="AS9" s="68"/>
+      <c r="AT9" s="68"/>
+      <c r="AU9" s="68"/>
+      <c r="AV9" s="68"/>
+      <c r="AW9" s="68"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ9" s="84"/>
+      <c r="BA9" s="84"/>
+      <c r="BB9" s="84"/>
+      <c r="BC9" s="84"/>
+      <c r="BD9" s="85"/>
+      <c r="BE9" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF9" s="68"/>
+      <c r="BG9" s="68"/>
+      <c r="BH9" s="68"/>
+      <c r="BI9" s="69"/>
+      <c r="BJ9" s="70">
+        <v>45441</v>
+      </c>
+      <c r="BK9" s="68"/>
+      <c r="BL9" s="68"/>
+      <c r="BM9" s="69"/>
+    </row>
+    <row r="10" spans="1:65" ht="15" customHeight="1">
+      <c r="A10" s="73">
+        <v>3</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="108"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="108"/>
-      <c r="AJ8" s="109"/>
-      <c r="AK8" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="110"/>
-      <c r="AO8" s="110"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="110"/>
-      <c r="AU8" s="110"/>
-      <c r="AV8" s="110"/>
-      <c r="AW8" s="110"/>
-      <c r="AX8" s="86"/>
-      <c r="AY8" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ8" s="112"/>
-      <c r="BA8" s="112"/>
-      <c r="BB8" s="112"/>
-      <c r="BC8" s="112"/>
-      <c r="BD8" s="87"/>
-      <c r="BE8" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF8" s="110"/>
-      <c r="BG8" s="110"/>
-      <c r="BH8" s="110"/>
-      <c r="BI8" s="86"/>
-      <c r="BJ8" s="113">
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="68"/>
+      <c r="AP10" s="68"/>
+      <c r="AQ10" s="68"/>
+      <c r="AR10" s="68"/>
+      <c r="AS10" s="68"/>
+      <c r="AT10" s="68"/>
+      <c r="AU10" s="68"/>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="68"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ10" s="81"/>
+      <c r="BA10" s="81"/>
+      <c r="BB10" s="81"/>
+      <c r="BC10" s="81"/>
+      <c r="BD10" s="81"/>
+      <c r="BE10" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF10" s="68"/>
+      <c r="BG10" s="68"/>
+      <c r="BH10" s="68"/>
+      <c r="BI10" s="69"/>
+      <c r="BJ10" s="70">
         <v>45441</v>
       </c>
-      <c r="BK8" s="110"/>
-      <c r="BL8" s="110"/>
-      <c r="BM8" s="86"/>
-    </row>
-    <row r="9" spans="1:65" ht="42" customHeight="1">
-      <c r="A9" s="88">
-        <v>2</v>
-      </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="s">
+      <c r="BK10" s="71"/>
+      <c r="BL10" s="71"/>
+      <c r="BM10" s="72"/>
+    </row>
+    <row r="11" spans="1:65" ht="15" customHeight="1">
+      <c r="A11" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="108"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="109"/>
-      <c r="AK9" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="110"/>
-      <c r="AO9" s="110"/>
-      <c r="AP9" s="110"/>
-      <c r="AQ9" s="110"/>
-      <c r="AR9" s="110"/>
-      <c r="AS9" s="110"/>
-      <c r="AT9" s="110"/>
-      <c r="AU9" s="110"/>
-      <c r="AV9" s="110"/>
-      <c r="AW9" s="110"/>
-      <c r="AX9" s="86"/>
-      <c r="AY9" s="116" t="s">
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="68"/>
+      <c r="AU11" s="68"/>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ9" s="114"/>
-      <c r="BA9" s="114"/>
-      <c r="BB9" s="114"/>
-      <c r="BC9" s="114"/>
-      <c r="BD9" s="115"/>
-      <c r="BE9" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF9" s="110"/>
-      <c r="BG9" s="110"/>
-      <c r="BH9" s="110"/>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="113">
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
+      <c r="BD11" s="66"/>
+      <c r="BE11" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF11" s="68"/>
+      <c r="BG11" s="68"/>
+      <c r="BH11" s="68"/>
+      <c r="BI11" s="69"/>
+      <c r="BJ11" s="70">
         <v>45441</v>
       </c>
-      <c r="BK9" s="110"/>
-      <c r="BL9" s="110"/>
-      <c r="BM9" s="86"/>
-    </row>
-    <row r="10" spans="1:65" ht="15" customHeight="1">
-      <c r="A10" s="117">
-        <v>3</v>
-      </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="108"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="108"/>
-      <c r="AJ10" s="109"/>
-      <c r="AK10" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL10" s="110"/>
-      <c r="AM10" s="110"/>
-      <c r="AN10" s="110"/>
-      <c r="AO10" s="110"/>
-      <c r="AP10" s="110"/>
-      <c r="AQ10" s="110"/>
-      <c r="AR10" s="110"/>
-      <c r="AS10" s="110"/>
-      <c r="AT10" s="110"/>
-      <c r="AU10" s="110"/>
-      <c r="AV10" s="110"/>
-      <c r="AW10" s="110"/>
-      <c r="AX10" s="86"/>
-      <c r="AY10" s="120" t="s">
+      <c r="BK11" s="71"/>
+      <c r="BL11" s="71"/>
+      <c r="BM11" s="72"/>
+    </row>
+    <row r="12" spans="1:65">
+      <c r="A12" s="73">
+        <v>5</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="79"/>
+      <c r="AS12" s="79"/>
+      <c r="AT12" s="79"/>
+      <c r="AU12" s="79"/>
+      <c r="AV12" s="79"/>
+      <c r="AW12" s="79"/>
+      <c r="AX12" s="80"/>
+      <c r="AY12" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="AZ10" s="120"/>
-      <c r="BA10" s="120"/>
-      <c r="BB10" s="120"/>
-      <c r="BC10" s="120"/>
-      <c r="BD10" s="120"/>
-      <c r="BE10" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF10" s="110"/>
-      <c r="BG10" s="110"/>
-      <c r="BH10" s="110"/>
-      <c r="BI10" s="86"/>
-      <c r="BJ10" s="113">
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="74"/>
+      <c r="BE12" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF12" s="68"/>
+      <c r="BG12" s="68"/>
+      <c r="BH12" s="68"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="70">
         <v>45441</v>
       </c>
-      <c r="BK10" s="128"/>
-      <c r="BL10" s="128"/>
-      <c r="BM10" s="129"/>
-    </row>
-    <row r="11" spans="1:65" ht="15" customHeight="1">
-      <c r="A11" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="108"/>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="108"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="108"/>
-      <c r="AJ11" s="109"/>
-      <c r="AK11" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="110"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="86"/>
-      <c r="AY11" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ11" s="93"/>
-      <c r="BA11" s="93"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="94"/>
-      <c r="BE11" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF11" s="110"/>
-      <c r="BG11" s="110"/>
-      <c r="BH11" s="110"/>
-      <c r="BI11" s="86"/>
-      <c r="BJ11" s="113">
-        <v>45441</v>
-      </c>
-      <c r="BK11" s="128"/>
-      <c r="BL11" s="128"/>
-      <c r="BM11" s="129"/>
-    </row>
-    <row r="12" spans="1:65">
-      <c r="A12" s="117">
-        <v>5</v>
-      </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="108"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="108"/>
-      <c r="AJ12" s="109"/>
-      <c r="AK12" s="122" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL12" s="123"/>
-      <c r="AM12" s="123"/>
-      <c r="AN12" s="123"/>
-      <c r="AO12" s="123"/>
-      <c r="AP12" s="123"/>
-      <c r="AQ12" s="123"/>
-      <c r="AR12" s="123"/>
-      <c r="AS12" s="123"/>
-      <c r="AT12" s="123"/>
-      <c r="AU12" s="123"/>
-      <c r="AV12" s="123"/>
-      <c r="AW12" s="123"/>
-      <c r="AX12" s="124"/>
-      <c r="AY12" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ12" s="117"/>
-      <c r="BA12" s="117"/>
-      <c r="BB12" s="117"/>
-      <c r="BC12" s="117"/>
-      <c r="BD12" s="121"/>
-      <c r="BE12" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF12" s="110"/>
-      <c r="BG12" s="110"/>
-      <c r="BH12" s="110"/>
-      <c r="BI12" s="86"/>
-      <c r="BJ12" s="113">
-        <v>45441</v>
-      </c>
-      <c r="BK12" s="128"/>
-      <c r="BL12" s="128"/>
-      <c r="BM12" s="129"/>
+      <c r="BK12" s="71"/>
+      <c r="BL12" s="71"/>
+      <c r="BM12" s="72"/>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="34"/>
@@ -3652,6 +3661,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="BJ7:BM7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S8:AJ8"/>
+    <mergeCell ref="AK8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BE8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="S7:AJ7"/>
+    <mergeCell ref="AK7:AX7"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="AK9:AX9"/>
     <mergeCell ref="AY11:BD11"/>
     <mergeCell ref="BE11:BI11"/>
     <mergeCell ref="BJ11:BM11"/>
@@ -3668,55 +3726,6 @@
     <mergeCell ref="L11:R11"/>
     <mergeCell ref="S11:AJ11"/>
     <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="S8:AJ8"/>
-    <mergeCell ref="AK8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BE8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="S7:AJ7"/>
-    <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3757,124 +3766,124 @@
     </row>
     <row r="2" spans="1:20" ht="19.8" customHeight="1"/>
     <row r="3" spans="1:20" ht="36">
-      <c r="A3" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="125" t="s">
+      <c r="A3" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="125" t="s">
+      <c r="G3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="125" t="s">
+      <c r="I3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="125" t="s">
+      <c r="K3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="125" t="s">
+      <c r="M3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="125" t="s">
+      <c r="N3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="125" t="s">
+      <c r="O3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="125" t="s">
+      <c r="P3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="125" t="s">
+      <c r="Q3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="125" t="s">
+      <c r="R3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="125" t="s">
+      <c r="S3" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="125" t="s">
+    </row>
+    <row r="4" spans="1:20" ht="18">
+      <c r="B4" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="18">
-      <c r="B4" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="126" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="126" t="s">
+      <c r="F4" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="126" t="s">
+      <c r="G4" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="126" t="s">
+      <c r="H4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="R4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="127" t="s">
-        <v>63</v>
+      <c r="Q4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報新規登録.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報新規登録.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA299B10-59FC-4411-9DF1-A576835561EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE76A9-0CE8-4E85-96FD-93E1AAB6BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="360" windowWidth="20070" windowHeight="15330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -1147,46 +1147,196 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1198,163 +1348,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{B1807F42-9FF7-4250-83E6-08FCFA41AC9E}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="2" xr:uid="{2D303322-CCD0-40E2-B021-1227DA5DE9FA}"/>
     <cellStyle name="標準_全店拡大－原票" xfId="1" xr:uid="{883413EB-8AE9-4336-8F77-E40A9051CE78}"/>
   </cellStyles>
@@ -1374,6 +1374,191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9D5620-6F23-5D9B-396C-1BE46A52FB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="2600325"/>
+          <a:ext cx="4991100" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -25795"/>
+            <a:gd name="adj2" fmla="val -55192"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>観点：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　①社員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　採番された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の正しさ。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　手動入力されたら、既存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と一意違反していないか</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②社員氏名。　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　・空チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　・長さチェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③メール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　・空チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　・社用メールであるチェック（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@it-softttech.com</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>であるか）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑤登録　テーブルに登録されたデータと画面入力データと一致する事。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1640,12 +1825,12 @@
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.19921875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.19921875" style="11"/>
-    <col min="22" max="22" width="5.19921875" style="15"/>
-    <col min="23" max="23" width="5.19921875" style="11"/>
-    <col min="24" max="16384" width="5.19921875" style="15"/>
+    <col min="1" max="21" width="5.25" style="11"/>
+    <col min="22" max="22" width="5.25" style="15"/>
+    <col min="23" max="23" width="5.25" style="11"/>
+    <col min="24" max="16384" width="5.25" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1">
@@ -1723,7 +1908,7 @@
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="14" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A14" s="5"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1779,7 +1964,7 @@
       <c r="R16" s="52"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="17" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A17" s="5"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1797,7 +1982,7 @@
       <c r="R17" s="8"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="18" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1817,7 +2002,7 @@
       <c r="R18" s="55"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="19" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1837,7 +2022,7 @@
       <c r="R19" s="58"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="20" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1855,7 +2040,7 @@
       <c r="R20" s="61"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="21" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A21" s="5"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1893,7 +2078,7 @@
       <c r="R22" s="63"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1913,7 +2098,7 @@
       <c r="R23" s="47"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1931,7 +2116,7 @@
       <c r="R24" s="50"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="25" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A25" s="5"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1949,7 +2134,7 @@
       <c r="R25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.2">
+    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.5">
       <c r="A26" s="5"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -2143,14 +2328,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="16" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="58.59765625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.19921875" style="16"/>
+    <col min="3" max="3" width="58.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.25" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2272,15 +2457,15 @@
   <dimension ref="A1:BM21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12:AX12"/>
+      <selection activeCell="BK19" sqref="BK19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="61" width="2.09765625" style="26" customWidth="1"/>
-    <col min="62" max="65" width="2.3984375" style="26" customWidth="1"/>
-    <col min="66" max="66" width="2.09765625" style="26" customWidth="1"/>
-    <col min="67" max="16384" width="9.59765625" style="26"/>
+    <col min="1" max="61" width="2.125" style="26" customWidth="1"/>
+    <col min="62" max="65" width="2.375" style="26" customWidth="1"/>
+    <col min="66" max="66" width="2.125" style="26" customWidth="1"/>
+    <col min="67" max="16384" width="9.625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
@@ -2351,710 +2536,710 @@
       <c r="BM1" s="30"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
       <c r="BM2" s="30"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="127" t="s">
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="130" t="s">
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="111"/>
-      <c r="AC4" s="111"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="111"/>
-      <c r="AF4" s="111"/>
-      <c r="AG4" s="111"/>
-      <c r="AH4" s="111"/>
-      <c r="AI4" s="111"/>
-      <c r="AJ4" s="111"/>
-      <c r="AK4" s="111"/>
-      <c r="AL4" s="111"/>
-      <c r="AM4" s="111"/>
-      <c r="AN4" s="111"/>
-      <c r="AO4" s="111"/>
-      <c r="AP4" s="111"/>
-      <c r="AQ4" s="111"/>
-      <c r="AR4" s="111"/>
-      <c r="AS4" s="111"/>
-      <c r="AT4" s="111"/>
-      <c r="AU4" s="111"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="107" t="s">
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="75"/>
+      <c r="AU4" s="75"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="110">
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="79"/>
+      <c r="AZ4" s="80">
         <v>45096</v>
       </c>
-      <c r="BA4" s="111"/>
-      <c r="BB4" s="111"/>
-      <c r="BC4" s="111"/>
-      <c r="BD4" s="111"/>
-      <c r="BE4" s="111"/>
-      <c r="BF4" s="107" t="s">
+      <c r="BA4" s="75"/>
+      <c r="BB4" s="75"/>
+      <c r="BC4" s="75"/>
+      <c r="BD4" s="75"/>
+      <c r="BE4" s="75"/>
+      <c r="BF4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="BG4" s="108"/>
-      <c r="BH4" s="109"/>
-      <c r="BI4" s="110" t="s">
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="BJ4" s="111"/>
-      <c r="BK4" s="111"/>
-      <c r="BL4" s="111"/>
+      <c r="BJ4" s="75"/>
+      <c r="BK4" s="75"/>
+      <c r="BL4" s="75"/>
       <c r="BM4" s="32"/>
     </row>
     <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="112" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="118"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="118"/>
-      <c r="AB5" s="118"/>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="118"/>
-      <c r="AF5" s="118"/>
-      <c r="AG5" s="118"/>
-      <c r="AH5" s="118"/>
-      <c r="AI5" s="118"/>
-      <c r="AJ5" s="118"/>
-      <c r="AK5" s="118"/>
-      <c r="AL5" s="118"/>
-      <c r="AM5" s="118"/>
-      <c r="AN5" s="118"/>
-      <c r="AO5" s="118"/>
-      <c r="AP5" s="118"/>
-      <c r="AQ5" s="118"/>
-      <c r="AR5" s="118"/>
-      <c r="AS5" s="118"/>
-      <c r="AT5" s="118"/>
-      <c r="AU5" s="118"/>
-      <c r="AV5" s="119"/>
-      <c r="AW5" s="112" t="s">
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="87"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="87"/>
+      <c r="AS5" s="87"/>
+      <c r="AT5" s="87"/>
+      <c r="AU5" s="87"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="112" t="s">
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="82"/>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="82"/>
+      <c r="BC5" s="82"/>
+      <c r="BD5" s="82"/>
+      <c r="BE5" s="82"/>
+      <c r="BF5" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="BG5" s="113"/>
-      <c r="BH5" s="114"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="118"/>
-      <c r="BK5" s="118"/>
-      <c r="BL5" s="118"/>
+      <c r="BG5" s="82"/>
+      <c r="BH5" s="83"/>
+      <c r="BI5" s="82"/>
+      <c r="BJ5" s="87"/>
+      <c r="BK5" s="87"/>
+      <c r="BL5" s="87"/>
       <c r="BM5" s="25"/>
     </row>
     <row r="7" spans="1:65" s="33" customFormat="1">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106" t="s">
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="95" t="s">
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="96"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="96"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="95" t="s">
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="96"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="96"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="96"/>
-      <c r="AS7" s="96"/>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="96"/>
-      <c r="AV7" s="96"/>
-      <c r="AW7" s="96"/>
-      <c r="AX7" s="97"/>
-      <c r="AY7" s="95" t="s">
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="AZ7" s="96"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="96"/>
-      <c r="BC7" s="96"/>
-      <c r="BD7" s="97"/>
-      <c r="BE7" s="95" t="s">
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="91"/>
+      <c r="BE7" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="BF7" s="96"/>
-      <c r="BG7" s="96"/>
-      <c r="BH7" s="96"/>
-      <c r="BI7" s="97"/>
-      <c r="BJ7" s="95" t="s">
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="91"/>
+      <c r="BJ7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="BK7" s="96"/>
-      <c r="BL7" s="96"/>
-      <c r="BM7" s="97"/>
+      <c r="BK7" s="90"/>
+      <c r="BL7" s="90"/>
+      <c r="BM7" s="91"/>
     </row>
     <row r="8" spans="1:65">
-      <c r="A8" s="98">
+      <c r="A8" s="92">
         <v>1</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="86" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="75" t="s">
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="77"/>
-      <c r="AK8" s="67" t="s">
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="100"/>
+      <c r="AB8" s="100"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="100"/>
+      <c r="AH8" s="100"/>
+      <c r="AI8" s="100"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="68"/>
-      <c r="AR8" s="68"/>
-      <c r="AS8" s="68"/>
-      <c r="AT8" s="68"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="68"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="103" t="s">
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="102"/>
+      <c r="AN8" s="102"/>
+      <c r="AO8" s="102"/>
+      <c r="AP8" s="102"/>
+      <c r="AQ8" s="102"/>
+      <c r="AR8" s="102"/>
+      <c r="AS8" s="102"/>
+      <c r="AT8" s="102"/>
+      <c r="AU8" s="102"/>
+      <c r="AV8" s="102"/>
+      <c r="AW8" s="102"/>
+      <c r="AX8" s="103"/>
+      <c r="AY8" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="AZ8" s="104"/>
-      <c r="BA8" s="104"/>
-      <c r="BB8" s="104"/>
-      <c r="BC8" s="104"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="67" t="s">
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="105"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="69"/>
-      <c r="BJ8" s="70">
+      <c r="BF8" s="102"/>
+      <c r="BG8" s="102"/>
+      <c r="BH8" s="102"/>
+      <c r="BI8" s="103"/>
+      <c r="BJ8" s="107">
         <v>45441</v>
       </c>
-      <c r="BK8" s="68"/>
-      <c r="BL8" s="68"/>
-      <c r="BM8" s="69"/>
+      <c r="BK8" s="102"/>
+      <c r="BL8" s="102"/>
+      <c r="BM8" s="103"/>
     </row>
     <row r="9" spans="1:65" ht="42" customHeight="1">
-      <c r="A9" s="90">
+      <c r="A9" s="119">
         <v>2</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="75" t="s">
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="67" t="s">
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="100"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="AL9" s="68"/>
-      <c r="AM9" s="68"/>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="68"/>
-      <c r="AP9" s="68"/>
-      <c r="AQ9" s="68"/>
-      <c r="AR9" s="68"/>
-      <c r="AS9" s="68"/>
-      <c r="AT9" s="68"/>
-      <c r="AU9" s="68"/>
-      <c r="AV9" s="68"/>
-      <c r="AW9" s="68"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="83" t="s">
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="102"/>
+      <c r="AO9" s="102"/>
+      <c r="AP9" s="102"/>
+      <c r="AQ9" s="102"/>
+      <c r="AR9" s="102"/>
+      <c r="AS9" s="102"/>
+      <c r="AT9" s="102"/>
+      <c r="AU9" s="102"/>
+      <c r="AV9" s="102"/>
+      <c r="AW9" s="102"/>
+      <c r="AX9" s="103"/>
+      <c r="AY9" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="84"/>
-      <c r="BD9" s="85"/>
-      <c r="BE9" s="67" t="s">
+      <c r="AZ9" s="110"/>
+      <c r="BA9" s="110"/>
+      <c r="BB9" s="110"/>
+      <c r="BC9" s="110"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="BF9" s="68"/>
-      <c r="BG9" s="68"/>
-      <c r="BH9" s="68"/>
-      <c r="BI9" s="69"/>
-      <c r="BJ9" s="70">
+      <c r="BF9" s="102"/>
+      <c r="BG9" s="102"/>
+      <c r="BH9" s="102"/>
+      <c r="BI9" s="103"/>
+      <c r="BJ9" s="107">
         <v>45441</v>
       </c>
-      <c r="BK9" s="68"/>
-      <c r="BL9" s="68"/>
-      <c r="BM9" s="69"/>
+      <c r="BK9" s="102"/>
+      <c r="BL9" s="102"/>
+      <c r="BM9" s="103"/>
     </row>
     <row r="10" spans="1:65" ht="15" customHeight="1">
-      <c r="A10" s="73">
+      <c r="A10" s="112">
         <v>3</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="86" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="75" t="s">
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="67" t="s">
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="AL10" s="68"/>
-      <c r="AM10" s="68"/>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="68"/>
-      <c r="AS10" s="68"/>
-      <c r="AT10" s="68"/>
-      <c r="AU10" s="68"/>
-      <c r="AV10" s="68"/>
-      <c r="AW10" s="68"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="81" t="s">
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="102"/>
+      <c r="AV10" s="102"/>
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="103"/>
+      <c r="AY10" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="AZ10" s="81"/>
-      <c r="BA10" s="81"/>
-      <c r="BB10" s="81"/>
-      <c r="BC10" s="81"/>
-      <c r="BD10" s="81"/>
-      <c r="BE10" s="67" t="s">
+      <c r="AZ10" s="116"/>
+      <c r="BA10" s="116"/>
+      <c r="BB10" s="116"/>
+      <c r="BC10" s="116"/>
+      <c r="BD10" s="116"/>
+      <c r="BE10" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="BF10" s="68"/>
-      <c r="BG10" s="68"/>
-      <c r="BH10" s="68"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="70">
+      <c r="BF10" s="102"/>
+      <c r="BG10" s="102"/>
+      <c r="BH10" s="102"/>
+      <c r="BI10" s="103"/>
+      <c r="BJ10" s="107">
         <v>45441</v>
       </c>
-      <c r="BK10" s="71"/>
-      <c r="BL10" s="71"/>
-      <c r="BM10" s="72"/>
+      <c r="BK10" s="117"/>
+      <c r="BL10" s="117"/>
+      <c r="BM10" s="118"/>
     </row>
     <row r="11" spans="1:65" ht="15" customHeight="1">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="82" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="75" t="s">
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="67" t="s">
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="100"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="100"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="100"/>
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="AL11" s="68"/>
-      <c r="AM11" s="68"/>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="68"/>
-      <c r="AR11" s="68"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="68"/>
-      <c r="AU11" s="68"/>
-      <c r="AV11" s="68"/>
-      <c r="AW11" s="68"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="64" t="s">
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="102"/>
+      <c r="AS11" s="102"/>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="102"/>
+      <c r="AV11" s="102"/>
+      <c r="AW11" s="102"/>
+      <c r="AX11" s="103"/>
+      <c r="AY11" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="AZ11" s="65"/>
-      <c r="BA11" s="65"/>
-      <c r="BB11" s="65"/>
-      <c r="BC11" s="65"/>
-      <c r="BD11" s="66"/>
-      <c r="BE11" s="67" t="s">
+      <c r="AZ11" s="124"/>
+      <c r="BA11" s="124"/>
+      <c r="BB11" s="124"/>
+      <c r="BC11" s="124"/>
+      <c r="BD11" s="125"/>
+      <c r="BE11" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="BF11" s="68"/>
-      <c r="BG11" s="68"/>
-      <c r="BH11" s="68"/>
-      <c r="BI11" s="69"/>
-      <c r="BJ11" s="70">
+      <c r="BF11" s="102"/>
+      <c r="BG11" s="102"/>
+      <c r="BH11" s="102"/>
+      <c r="BI11" s="103"/>
+      <c r="BJ11" s="107">
         <v>45441</v>
       </c>
-      <c r="BK11" s="71"/>
-      <c r="BL11" s="71"/>
-      <c r="BM11" s="72"/>
+      <c r="BK11" s="117"/>
+      <c r="BL11" s="117"/>
+      <c r="BM11" s="118"/>
     </row>
     <row r="12" spans="1:65">
-      <c r="A12" s="73">
+      <c r="A12" s="112">
         <v>5</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="67" t="s">
+      <c r="B12" s="112"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="67" t="s">
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="75" t="s">
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="78" t="s">
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="100"/>
+      <c r="AA12" s="100"/>
+      <c r="AB12" s="100"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="100"/>
+      <c r="AE12" s="100"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="100"/>
+      <c r="AH12" s="100"/>
+      <c r="AI12" s="100"/>
+      <c r="AJ12" s="101"/>
+      <c r="AK12" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="AL12" s="79"/>
-      <c r="AM12" s="79"/>
-      <c r="AN12" s="79"/>
-      <c r="AO12" s="79"/>
-      <c r="AP12" s="79"/>
-      <c r="AQ12" s="79"/>
-      <c r="AR12" s="79"/>
-      <c r="AS12" s="79"/>
-      <c r="AT12" s="79"/>
-      <c r="AU12" s="79"/>
-      <c r="AV12" s="79"/>
-      <c r="AW12" s="79"/>
-      <c r="AX12" s="80"/>
-      <c r="AY12" s="81" t="s">
+      <c r="AL12" s="129"/>
+      <c r="AM12" s="129"/>
+      <c r="AN12" s="129"/>
+      <c r="AO12" s="129"/>
+      <c r="AP12" s="129"/>
+      <c r="AQ12" s="129"/>
+      <c r="AR12" s="129"/>
+      <c r="AS12" s="129"/>
+      <c r="AT12" s="129"/>
+      <c r="AU12" s="129"/>
+      <c r="AV12" s="129"/>
+      <c r="AW12" s="129"/>
+      <c r="AX12" s="130"/>
+      <c r="AY12" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="73"/>
-      <c r="BD12" s="74"/>
-      <c r="BE12" s="67" t="s">
+      <c r="AZ12" s="112"/>
+      <c r="BA12" s="112"/>
+      <c r="BB12" s="112"/>
+      <c r="BC12" s="112"/>
+      <c r="BD12" s="127"/>
+      <c r="BE12" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="BF12" s="68"/>
-      <c r="BG12" s="68"/>
-      <c r="BH12" s="68"/>
-      <c r="BI12" s="69"/>
-      <c r="BJ12" s="70">
+      <c r="BF12" s="102"/>
+      <c r="BG12" s="102"/>
+      <c r="BH12" s="102"/>
+      <c r="BI12" s="103"/>
+      <c r="BJ12" s="107">
         <v>45441</v>
       </c>
-      <c r="BK12" s="71"/>
-      <c r="BL12" s="71"/>
-      <c r="BM12" s="72"/>
+      <c r="BK12" s="117"/>
+      <c r="BL12" s="117"/>
+      <c r="BM12" s="118"/>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="34"/>
@@ -3661,23 +3846,38 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:AJ12"/>
+    <mergeCell ref="AK12:AX12"/>
+    <mergeCell ref="AY12:BD12"/>
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="AK9:AX9"/>
     <mergeCell ref="AY7:BD7"/>
     <mergeCell ref="BE7:BI7"/>
     <mergeCell ref="BJ7:BM7"/>
@@ -3694,42 +3894,28 @@
     <mergeCell ref="L7:R7"/>
     <mergeCell ref="S7:AJ7"/>
     <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:AJ12"/>
-    <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="AY12:BD12"/>
-    <mergeCell ref="BE12:BI12"/>
-    <mergeCell ref="BJ12:BM12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3741,22 +3927,22 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="36"/>
-    <col min="4" max="4" width="20.19921875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="20.19921875" style="36" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="36"/>
+    <col min="4" max="4" width="20.25" style="36" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="36" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="20.69921875" style="36" customWidth="1"/>
-    <col min="10" max="13" width="9.59765625" style="36"/>
-    <col min="14" max="14" width="10.59765625" style="36" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" style="36"/>
+    <col min="8" max="8" width="14.375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="36" customWidth="1"/>
+    <col min="10" max="13" width="9.625" style="36"/>
+    <col min="14" max="14" width="10.625" style="36" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="36"/>
     <col min="16" max="16" width="16.5" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="9.59765625" style="36"/>
+    <col min="17" max="16384" width="9.625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3764,7 +3950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.8" customHeight="1"/>
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1"/>
     <row r="3" spans="1:20" ht="36">
       <c r="A3" s="44" t="s">
         <v>66</v>
@@ -3827,7 +4013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18">
+    <row r="4" spans="1:20" ht="18.75">
       <c r="B4" s="42" t="s">
         <v>64</v>
       </c>

--- a/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報新規登録.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報新規登録.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE76A9-0CE8-4E85-96FD-93E1AAB6BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369B124D-561E-4CE3-A936-088A489048F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="360" windowWidth="20070" windowHeight="15330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>〇</t>
-  </si>
-  <si>
-    <t>４</t>
   </si>
   <si>
     <t>employeeID</t>
@@ -204,13 +201,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>必須＿社員氏名</t>
-    <rPh sb="5" eb="7">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>登録ボタン押す</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -236,16 +226,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>条件によってエラーメッセージ表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
@@ -271,15 +251,243 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>登録完了とメッセージ表示する</t>
+    <t>採番された社員IDが正しい</t>
     <rPh sb="0" eb="2">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>必須＿社員氏名</t>
+    <rPh sb="3" eb="5">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員IDの空白の場合　"社員IDを入力してください。"　とメッセージ表示</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員IDの長さが6文字越える場合　"社員IDは6文字以下で入力してください。"　とメッセージ表示</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員IDの英数チェック"社員IDは英数字のみをを入力してください。"とメッセージ表示</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員氏名が空白の場合"社員氏名を入力してください。"　とメッセージ表示</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員氏名の長さが１２文字越える場合"社員氏名は12文字以下で入力してください。"　とメッセージ表示</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードの長さチェックパスワードは6文字以下で入力してください。とメッセージ表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードの英数チェック英数ではない場合"パスワードは英数字のみをを入力してください。"とメッセージ表示</t>
+    <rPh sb="6" eb="8">
+      <t>エイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールが空白の場合"メールを入力してください。"　とメッセージ表示</t>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールの入力がit-softtechじゃない場合入力したメールは＠の後it-sofftech.com　じゃない場合　"メールは'@it-softtech.com'で終わる必要があります。"　とメッセージ表示</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールの英数チェック。（@は半角）"メールは英数字と特定の記号（._%+-）のみを含む必要があります。"とメッセージ表示</t>
+    <rPh sb="4" eb="6">
+      <t>エイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブルに登録されたデータと画面入力データと一致する</t>
+    <rPh sb="5" eb="7">
       <t>トウロク</t>
     </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードが空白の場合"パスワードを入力してください。"　とメッセージ表示</t>
+    <rPh sb="6" eb="8">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員IDの自動採番</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員IDの長さ</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員IDの入力タイプ</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員氏名の長さ</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
     <rPh sb="2" eb="4">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードの長さ</t>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードの入力タイプ</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールのチェック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールの入力タイプ</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -291,7 +499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,12 +651,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -954,7 +1156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,7 +1265,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1078,17 +1280,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1147,6 +1352,90 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1231,130 +1520,52 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{B1807F42-9FF7-4250-83E6-08FCFA41AC9E}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="2" xr:uid="{2D303322-CCD0-40E2-B021-1227DA5DE9FA}"/>
     <cellStyle name="標準_全店拡大－原票" xfId="1" xr:uid="{883413EB-8AE9-4336-8F77-E40A9051CE78}"/>
   </cellStyles>
@@ -1374,191 +1585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9D5620-6F23-5D9B-396C-1BE46A52FB06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400175" y="2600325"/>
-          <a:ext cx="4991100" cy="3486150"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -25795"/>
-            <a:gd name="adj2" fmla="val -55192"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>観点：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　①社員</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　採番された</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の正しさ。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　手動入力されたら、既存</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>と一意違反していないか</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>②社員氏名。　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　・空チェック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　・長さチェック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>③メール</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　・空チェック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　・社用メールであるチェック（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>@it-softttech.com</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>であるか）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>⑤登録　テーブルに登録されたデータと画面入力データと一致する事。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1825,12 +1851,12 @@
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.19921875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.25" style="11"/>
-    <col min="22" max="22" width="5.25" style="15"/>
-    <col min="23" max="23" width="5.25" style="11"/>
-    <col min="24" max="16384" width="5.25" style="15"/>
+    <col min="1" max="21" width="5.19921875" style="11"/>
+    <col min="22" max="22" width="5.19921875" style="15"/>
+    <col min="23" max="23" width="5.19921875" style="11"/>
+    <col min="24" max="16384" width="5.19921875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1">
@@ -1908,7 +1934,7 @@
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="14" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A14" s="5"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1931,16 +1957,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -1948,23 +1974,23 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A17" s="5"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1982,65 +2008,65 @@
       <c r="R17" s="8"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="18" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="59"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="61"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="62"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A21" s="5"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2062,61 +2088,61 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="64"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="48"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="51"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A25" s="5"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2134,7 +2160,7 @@
       <c r="R25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.5">
+    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.2">
       <c r="A26" s="5"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -2328,14 +2354,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="16" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="58.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.25" style="16"/>
+    <col min="3" max="3" width="58.59765625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.19921875" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2365,13 +2391,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="20">
         <v>45441</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -2454,18 +2480,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM21"/>
+  <dimension ref="A1:BM29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BK19" sqref="BK19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="61" width="2.125" style="26" customWidth="1"/>
-    <col min="62" max="65" width="2.375" style="26" customWidth="1"/>
-    <col min="66" max="66" width="2.125" style="26" customWidth="1"/>
-    <col min="67" max="16384" width="9.625" style="26"/>
+    <col min="1" max="49" width="2.09765625" style="26" customWidth="1"/>
+    <col min="50" max="50" width="5.69921875" style="26" customWidth="1"/>
+    <col min="51" max="61" width="2.09765625" style="26" customWidth="1"/>
+    <col min="62" max="65" width="2.3984375" style="26" customWidth="1"/>
+    <col min="66" max="66" width="2.09765625" style="26" customWidth="1"/>
+    <col min="67" max="16384" width="9.59765625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
@@ -2536,1351 +2564,1980 @@
       <c r="BM1" s="30"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
       <c r="BM2" s="30"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="71" t="s">
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="108"/>
+      <c r="AZ4" s="109">
+        <v>45096</v>
+      </c>
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="32"/>
+    </row>
+    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116"/>
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116"/>
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116"/>
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="117"/>
+      <c r="AW5" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX5" s="111"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="111"/>
+      <c r="BA5" s="111"/>
+      <c r="BB5" s="111"/>
+      <c r="BC5" s="111"/>
+      <c r="BD5" s="111"/>
+      <c r="BE5" s="111"/>
+      <c r="BF5" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG5" s="111"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="111"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="25"/>
+    </row>
+    <row r="7" spans="1:65" s="33" customFormat="1">
+      <c r="A7" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="119"/>
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="120"/>
+      <c r="AY7" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="119"/>
+      <c r="BD7" s="120"/>
+      <c r="BE7" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF7" s="119"/>
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="120"/>
+      <c r="BJ7" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK7" s="119"/>
+      <c r="BL7" s="119"/>
+      <c r="BM7" s="120"/>
+    </row>
+    <row r="8" spans="1:65">
+      <c r="A8" s="78">
+        <v>1</v>
+      </c>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="76"/>
+      <c r="AY8" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="72"/>
+      <c r="BD8" s="73"/>
+      <c r="BE8" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF8" s="75"/>
+      <c r="BG8" s="75"/>
+      <c r="BH8" s="75"/>
+      <c r="BI8" s="76"/>
+      <c r="BJ8" s="77">
+        <v>45441</v>
+      </c>
+      <c r="BK8" s="75"/>
+      <c r="BL8" s="75"/>
+      <c r="BM8" s="76"/>
+    </row>
+    <row r="9" spans="1:65" s="45" customFormat="1" ht="37.799999999999997" customHeight="1">
+      <c r="A9" s="83">
+        <v>2</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="69"/>
+      <c r="AS9" s="69"/>
+      <c r="AT9" s="69"/>
+      <c r="AU9" s="69"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="90"/>
+      <c r="BB9" s="90"/>
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF9" s="69"/>
+      <c r="BG9" s="69"/>
+      <c r="BH9" s="69"/>
+      <c r="BI9" s="70"/>
+      <c r="BJ9" s="88">
+        <v>45442</v>
+      </c>
+      <c r="BK9" s="69"/>
+      <c r="BL9" s="69"/>
+      <c r="BM9" s="70"/>
+    </row>
+    <row r="10" spans="1:65" s="40" customFormat="1" ht="36" customHeight="1">
+      <c r="A10" s="78">
+        <v>3</v>
+      </c>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="67"/>
+      <c r="AK10" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ10" s="72"/>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="72"/>
+      <c r="BD10" s="73"/>
+      <c r="BE10" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="77">
+        <v>45443</v>
+      </c>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="76"/>
+    </row>
+    <row r="11" spans="1:65" s="40" customFormat="1" ht="48" customHeight="1">
+      <c r="A11" s="83">
+        <v>4</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ11" s="72"/>
+      <c r="BA11" s="72"/>
+      <c r="BB11" s="72"/>
+      <c r="BC11" s="72"/>
+      <c r="BD11" s="73"/>
+      <c r="BE11" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF11" s="75"/>
+      <c r="BG11" s="75"/>
+      <c r="BH11" s="75"/>
+      <c r="BI11" s="76"/>
+      <c r="BJ11" s="77">
+        <v>45444</v>
+      </c>
+      <c r="BK11" s="75"/>
+      <c r="BL11" s="75"/>
+      <c r="BM11" s="76"/>
+    </row>
+    <row r="12" spans="1:65" s="40" customFormat="1" ht="35.4" customHeight="1">
+      <c r="A12" s="78">
+        <v>8</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="67"/>
+      <c r="AK12" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ12" s="72"/>
+      <c r="BA12" s="72"/>
+      <c r="BB12" s="72"/>
+      <c r="BC12" s="72"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF12" s="75"/>
+      <c r="BG12" s="75"/>
+      <c r="BH12" s="75"/>
+      <c r="BI12" s="76"/>
+      <c r="BJ12" s="77">
+        <v>45448</v>
+      </c>
+      <c r="BK12" s="75"/>
+      <c r="BL12" s="75"/>
+      <c r="BM12" s="76"/>
+    </row>
+    <row r="13" spans="1:65" s="40" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A13" s="83">
+        <v>6</v>
+      </c>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ13" s="72"/>
+      <c r="BA13" s="72"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="72"/>
+      <c r="BD13" s="73"/>
+      <c r="BE13" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF13" s="75"/>
+      <c r="BG13" s="75"/>
+      <c r="BH13" s="75"/>
+      <c r="BI13" s="76"/>
+      <c r="BJ13" s="77">
+        <v>45446</v>
+      </c>
+      <c r="BK13" s="75"/>
+      <c r="BL13" s="75"/>
+      <c r="BM13" s="76"/>
+    </row>
+    <row r="14" spans="1:65" s="40" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A14" s="83">
+        <v>7</v>
+      </c>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69"/>
+      <c r="AS14" s="69"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ14" s="72"/>
+      <c r="BA14" s="72"/>
+      <c r="BB14" s="72"/>
+      <c r="BC14" s="72"/>
+      <c r="BD14" s="73"/>
+      <c r="BE14" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF14" s="75"/>
+      <c r="BG14" s="75"/>
+      <c r="BH14" s="75"/>
+      <c r="BI14" s="76"/>
+      <c r="BJ14" s="77">
+        <v>45447</v>
+      </c>
+      <c r="BK14" s="75"/>
+      <c r="BL14" s="75"/>
+      <c r="BM14" s="76"/>
+    </row>
+    <row r="15" spans="1:65" s="40" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A15" s="78">
+        <v>7</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="69"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="69"/>
+      <c r="AS15" s="69"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ15" s="72"/>
+      <c r="BA15" s="72"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="72"/>
+      <c r="BD15" s="73"/>
+      <c r="BE15" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF15" s="75"/>
+      <c r="BG15" s="75"/>
+      <c r="BH15" s="75"/>
+      <c r="BI15" s="76"/>
+      <c r="BJ15" s="77">
+        <v>45447</v>
+      </c>
+      <c r="BK15" s="75"/>
+      <c r="BL15" s="75"/>
+      <c r="BM15" s="76"/>
+    </row>
+    <row r="16" spans="1:65" s="40" customFormat="1" ht="36.6" customHeight="1">
+      <c r="A16" s="83">
+        <v>8</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="69"/>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BD16" s="73"/>
+      <c r="BE16" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF16" s="75"/>
+      <c r="BG16" s="75"/>
+      <c r="BH16" s="75"/>
+      <c r="BI16" s="76"/>
+      <c r="BJ16" s="77">
+        <v>45448</v>
+      </c>
+      <c r="BK16" s="75"/>
+      <c r="BL16" s="75"/>
+      <c r="BM16" s="76"/>
+    </row>
+    <row r="17" spans="1:65" s="40" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A17" s="78">
+        <v>9</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="67"/>
+      <c r="AK17" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="69"/>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ17" s="72"/>
+      <c r="BA17" s="72"/>
+      <c r="BB17" s="72"/>
+      <c r="BC17" s="72"/>
+      <c r="BD17" s="73"/>
+      <c r="BE17" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF17" s="75"/>
+      <c r="BG17" s="75"/>
+      <c r="BH17" s="75"/>
+      <c r="BI17" s="76"/>
+      <c r="BJ17" s="77">
+        <v>45449</v>
+      </c>
+      <c r="BK17" s="75"/>
+      <c r="BL17" s="75"/>
+      <c r="BM17" s="76"/>
+    </row>
+    <row r="18" spans="1:65" s="40" customFormat="1" ht="55.8" customHeight="1">
+      <c r="A18" s="83">
+        <v>10</v>
+      </c>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="69"/>
+      <c r="AR18" s="69"/>
+      <c r="AS18" s="69"/>
+      <c r="AT18" s="69"/>
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="69"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ18" s="72"/>
+      <c r="BA18" s="72"/>
+      <c r="BB18" s="72"/>
+      <c r="BC18" s="72"/>
+      <c r="BD18" s="73"/>
+      <c r="BE18" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF18" s="75"/>
+      <c r="BG18" s="75"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="76"/>
+      <c r="BJ18" s="77">
+        <v>45442</v>
+      </c>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="75"/>
+      <c r="BM18" s="76"/>
+    </row>
+    <row r="19" spans="1:65" ht="42" customHeight="1">
+      <c r="A19" s="78">
         <v>11</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="74" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="75"/>
+      <c r="AO19" s="75"/>
+      <c r="AP19" s="75"/>
+      <c r="AQ19" s="75"/>
+      <c r="AR19" s="75"/>
+      <c r="AS19" s="75"/>
+      <c r="AT19" s="75"/>
+      <c r="AU19" s="75"/>
+      <c r="AV19" s="75"/>
+      <c r="AW19" s="75"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ19" s="123"/>
+      <c r="BA19" s="123"/>
+      <c r="BB19" s="123"/>
+      <c r="BC19" s="123"/>
+      <c r="BD19" s="124"/>
+      <c r="BE19" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="75"/>
-      <c r="AT4" s="75"/>
-      <c r="AU4" s="75"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="77" t="s">
+      <c r="BF19" s="75"/>
+      <c r="BG19" s="75"/>
+      <c r="BH19" s="75"/>
+      <c r="BI19" s="76"/>
+      <c r="BJ19" s="77">
+        <v>45441</v>
+      </c>
+      <c r="BK19" s="75"/>
+      <c r="BL19" s="75"/>
+      <c r="BM19" s="76"/>
+    </row>
+    <row r="20" spans="1:65">
+      <c r="A20" s="83">
         <v>12</v>
       </c>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="79"/>
-      <c r="AZ4" s="80">
-        <v>45096</v>
-      </c>
-      <c r="BA4" s="75"/>
-      <c r="BB4" s="75"/>
-      <c r="BC4" s="75"/>
-      <c r="BD4" s="75"/>
-      <c r="BE4" s="75"/>
-      <c r="BF4" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="BJ4" s="75"/>
-      <c r="BK4" s="75"/>
-      <c r="BL4" s="75"/>
-      <c r="BM4" s="32"/>
-    </row>
-    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="87"/>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX5" s="82"/>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="82"/>
-      <c r="BA5" s="82"/>
-      <c r="BB5" s="82"/>
-      <c r="BC5" s="82"/>
-      <c r="BD5" s="82"/>
-      <c r="BE5" s="82"/>
-      <c r="BF5" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG5" s="82"/>
-      <c r="BH5" s="83"/>
-      <c r="BI5" s="82"/>
-      <c r="BJ5" s="87"/>
-      <c r="BK5" s="87"/>
-      <c r="BL5" s="87"/>
-      <c r="BM5" s="25"/>
-    </row>
-    <row r="7" spans="1:65" s="33" customFormat="1">
-      <c r="A7" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL7" s="90"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="90"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="90"/>
-      <c r="BC7" s="90"/>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="90"/>
-      <c r="BH7" s="90"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK7" s="90"/>
-      <c r="BL7" s="90"/>
-      <c r="BM7" s="91"/>
-    </row>
-    <row r="8" spans="1:65">
-      <c r="A8" s="92">
-        <v>1</v>
-      </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="100"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL8" s="102"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="102"/>
-      <c r="AO8" s="102"/>
-      <c r="AP8" s="102"/>
-      <c r="AQ8" s="102"/>
-      <c r="AR8" s="102"/>
-      <c r="AS8" s="102"/>
-      <c r="AT8" s="102"/>
-      <c r="AU8" s="102"/>
-      <c r="AV8" s="102"/>
-      <c r="AW8" s="102"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="105"/>
-      <c r="BC8" s="105"/>
-      <c r="BD8" s="106"/>
-      <c r="BE8" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF8" s="102"/>
-      <c r="BG8" s="102"/>
-      <c r="BH8" s="102"/>
-      <c r="BI8" s="103"/>
-      <c r="BJ8" s="107">
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="67"/>
+      <c r="AK20" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL20" s="130"/>
+      <c r="AM20" s="130"/>
+      <c r="AN20" s="130"/>
+      <c r="AO20" s="130"/>
+      <c r="AP20" s="130"/>
+      <c r="AQ20" s="130"/>
+      <c r="AR20" s="130"/>
+      <c r="AS20" s="130"/>
+      <c r="AT20" s="130"/>
+      <c r="AU20" s="130"/>
+      <c r="AV20" s="130"/>
+      <c r="AW20" s="130"/>
+      <c r="AX20" s="131"/>
+      <c r="AY20" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ20" s="127"/>
+      <c r="BA20" s="127"/>
+      <c r="BB20" s="127"/>
+      <c r="BC20" s="127"/>
+      <c r="BD20" s="128"/>
+      <c r="BE20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF20" s="75"/>
+      <c r="BG20" s="75"/>
+      <c r="BH20" s="75"/>
+      <c r="BI20" s="76"/>
+      <c r="BJ20" s="77">
         <v>45441</v>
       </c>
-      <c r="BK8" s="102"/>
-      <c r="BL8" s="102"/>
-      <c r="BM8" s="103"/>
-    </row>
-    <row r="9" spans="1:65" ht="42" customHeight="1">
-      <c r="A9" s="119">
-        <v>2</v>
-      </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="100"/>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="103"/>
-      <c r="AY9" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ9" s="110"/>
-      <c r="BA9" s="110"/>
-      <c r="BB9" s="110"/>
-      <c r="BC9" s="110"/>
-      <c r="BD9" s="111"/>
-      <c r="BE9" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="103"/>
-      <c r="BJ9" s="107">
-        <v>45441</v>
-      </c>
-      <c r="BK9" s="102"/>
-      <c r="BL9" s="102"/>
-      <c r="BM9" s="103"/>
-    </row>
-    <row r="10" spans="1:65" ht="15" customHeight="1">
-      <c r="A10" s="112">
-        <v>3</v>
-      </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="100"/>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="100"/>
-      <c r="AJ10" s="101"/>
-      <c r="AK10" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="103"/>
-      <c r="AY10" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ10" s="116"/>
-      <c r="BA10" s="116"/>
-      <c r="BB10" s="116"/>
-      <c r="BC10" s="116"/>
-      <c r="BD10" s="116"/>
-      <c r="BE10" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="102"/>
-      <c r="BI10" s="103"/>
-      <c r="BJ10" s="107">
-        <v>45441</v>
-      </c>
-      <c r="BK10" s="117"/>
-      <c r="BL10" s="117"/>
-      <c r="BM10" s="118"/>
-    </row>
-    <row r="11" spans="1:65" ht="15" customHeight="1">
-      <c r="A11" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="101"/>
-      <c r="AK11" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="102"/>
-      <c r="AT11" s="102"/>
-      <c r="AU11" s="102"/>
-      <c r="AV11" s="102"/>
-      <c r="AW11" s="102"/>
-      <c r="AX11" s="103"/>
-      <c r="AY11" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ11" s="124"/>
-      <c r="BA11" s="124"/>
-      <c r="BB11" s="124"/>
-      <c r="BC11" s="124"/>
-      <c r="BD11" s="125"/>
-      <c r="BE11" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF11" s="102"/>
-      <c r="BG11" s="102"/>
-      <c r="BH11" s="102"/>
-      <c r="BI11" s="103"/>
-      <c r="BJ11" s="107">
-        <v>45441</v>
-      </c>
-      <c r="BK11" s="117"/>
-      <c r="BL11" s="117"/>
-      <c r="BM11" s="118"/>
-    </row>
-    <row r="12" spans="1:65">
-      <c r="A12" s="112">
-        <v>5</v>
-      </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="100"/>
-      <c r="AB12" s="100"/>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="100"/>
-      <c r="AE12" s="100"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="100"/>
-      <c r="AH12" s="100"/>
-      <c r="AI12" s="100"/>
-      <c r="AJ12" s="101"/>
-      <c r="AK12" s="128" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL12" s="129"/>
-      <c r="AM12" s="129"/>
-      <c r="AN12" s="129"/>
-      <c r="AO12" s="129"/>
-      <c r="AP12" s="129"/>
-      <c r="AQ12" s="129"/>
-      <c r="AR12" s="129"/>
-      <c r="AS12" s="129"/>
-      <c r="AT12" s="129"/>
-      <c r="AU12" s="129"/>
-      <c r="AV12" s="129"/>
-      <c r="AW12" s="129"/>
-      <c r="AX12" s="130"/>
-      <c r="AY12" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ12" s="112"/>
-      <c r="BA12" s="112"/>
-      <c r="BB12" s="112"/>
-      <c r="BC12" s="112"/>
-      <c r="BD12" s="127"/>
-      <c r="BE12" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF12" s="102"/>
-      <c r="BG12" s="102"/>
-      <c r="BH12" s="102"/>
-      <c r="BI12" s="103"/>
-      <c r="BJ12" s="107">
-        <v>45441</v>
-      </c>
-      <c r="BK12" s="117"/>
-      <c r="BL12" s="117"/>
-      <c r="BM12" s="118"/>
-    </row>
-    <row r="13" spans="1:65">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="35"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="34"/>
-      <c r="AZ13" s="35"/>
-      <c r="BA13" s="35"/>
-      <c r="BB13" s="35"/>
-      <c r="BC13" s="35"/>
-      <c r="BD13" s="40"/>
-      <c r="BE13" s="34"/>
-      <c r="BF13" s="35"/>
-      <c r="BG13" s="35"/>
-      <c r="BH13" s="35"/>
-      <c r="BI13" s="40"/>
-      <c r="BJ13" s="34"/>
-      <c r="BK13" s="35"/>
-      <c r="BL13" s="35"/>
-      <c r="BM13" s="40"/>
-    </row>
-    <row r="14" spans="1:65">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="37"/>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="38"/>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="39"/>
-      <c r="BE14" s="37"/>
-      <c r="BF14" s="38"/>
-      <c r="BG14" s="38"/>
-      <c r="BH14" s="38"/>
-      <c r="BI14" s="39"/>
-      <c r="BJ14" s="37"/>
-      <c r="BK14" s="38"/>
-      <c r="BL14" s="38"/>
-      <c r="BM14" s="39"/>
-    </row>
-    <row r="15" spans="1:65">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="38"/>
-      <c r="AT15" s="38"/>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="38"/>
-      <c r="AX15" s="39"/>
-      <c r="AY15" s="37"/>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="38"/>
-      <c r="BB15" s="38"/>
-      <c r="BC15" s="38"/>
-      <c r="BD15" s="39"/>
-      <c r="BE15" s="37"/>
-      <c r="BF15" s="38"/>
-      <c r="BG15" s="38"/>
-      <c r="BH15" s="38"/>
-      <c r="BI15" s="39"/>
-      <c r="BJ15" s="37"/>
-      <c r="BK15" s="38"/>
-      <c r="BL15" s="38"/>
-      <c r="BM15" s="39"/>
-    </row>
-    <row r="16" spans="1:65">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="37"/>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="38"/>
-      <c r="BB16" s="38"/>
-      <c r="BC16" s="38"/>
-      <c r="BD16" s="39"/>
-      <c r="BE16" s="37"/>
-      <c r="BF16" s="38"/>
-      <c r="BG16" s="38"/>
-      <c r="BH16" s="38"/>
-      <c r="BI16" s="39"/>
-      <c r="BJ16" s="37"/>
-      <c r="BK16" s="38"/>
-      <c r="BL16" s="38"/>
-      <c r="BM16" s="39"/>
-    </row>
-    <row r="17" spans="1:65">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="38"/>
-      <c r="AV17" s="38"/>
-      <c r="AW17" s="38"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="37"/>
-      <c r="AZ17" s="38"/>
-      <c r="BA17" s="38"/>
-      <c r="BB17" s="38"/>
-      <c r="BC17" s="38"/>
-      <c r="BD17" s="39"/>
-      <c r="BE17" s="37"/>
-      <c r="BF17" s="38"/>
-      <c r="BG17" s="38"/>
-      <c r="BH17" s="38"/>
-      <c r="BI17" s="39"/>
-      <c r="BJ17" s="37"/>
-      <c r="BK17" s="38"/>
-      <c r="BL17" s="38"/>
-      <c r="BM17" s="39"/>
-    </row>
-    <row r="18" spans="1:65">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="39"/>
-      <c r="BE18" s="37"/>
-      <c r="BF18" s="38"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="38"/>
-      <c r="BI18" s="39"/>
-      <c r="BJ18" s="37"/>
-      <c r="BK18" s="38"/>
-      <c r="BL18" s="38"/>
-      <c r="BM18" s="39"/>
-    </row>
-    <row r="19" spans="1:65">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="38"/>
-      <c r="AX19" s="39"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="38"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="39"/>
-      <c r="BE19" s="37"/>
-      <c r="BF19" s="38"/>
-      <c r="BG19" s="38"/>
-      <c r="BH19" s="38"/>
-      <c r="BI19" s="39"/>
-      <c r="BJ19" s="37"/>
-      <c r="BK19" s="38"/>
-      <c r="BL19" s="38"/>
-      <c r="BM19" s="39"/>
-    </row>
-    <row r="20" spans="1:65">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="38"/>
-      <c r="AU20" s="38"/>
-      <c r="AV20" s="38"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="37"/>
-      <c r="AZ20" s="38"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="39"/>
-      <c r="BE20" s="37"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="38"/>
-      <c r="BI20" s="39"/>
-      <c r="BJ20" s="37"/>
-      <c r="BK20" s="38"/>
-      <c r="BL20" s="38"/>
-      <c r="BM20" s="39"/>
+      <c r="BK20" s="133"/>
+      <c r="BL20" s="133"/>
+      <c r="BM20" s="134"/>
     </row>
     <row r="21" spans="1:65">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="37"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="39"/>
-      <c r="BE21" s="37"/>
-      <c r="BF21" s="38"/>
-      <c r="BG21" s="38"/>
-      <c r="BH21" s="38"/>
-      <c r="BI21" s="39"/>
-      <c r="BJ21" s="37"/>
-      <c r="BK21" s="38"/>
-      <c r="BL21" s="38"/>
-      <c r="BM21" s="39"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="35"/>
+      <c r="AQ21" s="35"/>
+      <c r="AR21" s="35"/>
+      <c r="AS21" s="35"/>
+      <c r="AT21" s="35"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="35"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="34"/>
+      <c r="AZ21" s="35"/>
+      <c r="BA21" s="35"/>
+      <c r="BB21" s="35"/>
+      <c r="BC21" s="35"/>
+      <c r="BD21" s="40"/>
+      <c r="BE21" s="34"/>
+      <c r="BF21" s="35"/>
+      <c r="BG21" s="35"/>
+      <c r="BH21" s="35"/>
+      <c r="BI21" s="40"/>
+      <c r="BJ21" s="34"/>
+      <c r="BK21" s="35"/>
+      <c r="BL21" s="35"/>
+      <c r="BM21" s="40"/>
+    </row>
+    <row r="22" spans="1:65">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="39"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="38"/>
+      <c r="BA22" s="38"/>
+      <c r="BB22" s="38"/>
+      <c r="BC22" s="38"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="37"/>
+      <c r="BF22" s="38"/>
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="38"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="37"/>
+      <c r="BK22" s="38"/>
+      <c r="BL22" s="38"/>
+      <c r="BM22" s="39"/>
+    </row>
+    <row r="23" spans="1:65">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="38"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="38"/>
+      <c r="BB23" s="38"/>
+      <c r="BC23" s="38"/>
+      <c r="BD23" s="39"/>
+      <c r="BE23" s="37"/>
+      <c r="BF23" s="38"/>
+      <c r="BG23" s="38"/>
+      <c r="BH23" s="38"/>
+      <c r="BI23" s="39"/>
+      <c r="BJ23" s="37"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="39"/>
+    </row>
+    <row r="24" spans="1:65">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="38"/>
+      <c r="BA24" s="38"/>
+      <c r="BB24" s="38"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="37"/>
+      <c r="BF24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="38"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="38"/>
+      <c r="BL24" s="38"/>
+      <c r="BM24" s="39"/>
+    </row>
+    <row r="25" spans="1:65">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="38"/>
+      <c r="BA25" s="38"/>
+      <c r="BB25" s="38"/>
+      <c r="BC25" s="38"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="37"/>
+      <c r="BF25" s="38"/>
+      <c r="BG25" s="38"/>
+      <c r="BH25" s="38"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="37"/>
+      <c r="BK25" s="38"/>
+      <c r="BL25" s="38"/>
+      <c r="BM25" s="39"/>
+    </row>
+    <row r="26" spans="1:65">
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="38"/>
+      <c r="BB26" s="38"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="37"/>
+      <c r="BF26" s="38"/>
+      <c r="BG26" s="38"/>
+      <c r="BH26" s="38"/>
+      <c r="BI26" s="39"/>
+      <c r="BJ26" s="37"/>
+      <c r="BK26" s="38"/>
+      <c r="BL26" s="38"/>
+      <c r="BM26" s="39"/>
+    </row>
+    <row r="27" spans="1:65">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="37"/>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="38"/>
+      <c r="BB27" s="38"/>
+      <c r="BC27" s="38"/>
+      <c r="BD27" s="39"/>
+      <c r="BE27" s="37"/>
+      <c r="BF27" s="38"/>
+      <c r="BG27" s="38"/>
+      <c r="BH27" s="38"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="37"/>
+      <c r="BK27" s="38"/>
+      <c r="BL27" s="38"/>
+      <c r="BM27" s="39"/>
+    </row>
+    <row r="28" spans="1:65">
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="39"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="38"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="39"/>
+      <c r="BE28" s="37"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="39"/>
+      <c r="BJ28" s="37"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="39"/>
+    </row>
+    <row r="29" spans="1:65">
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="38"/>
+      <c r="AW29" s="38"/>
+      <c r="AX29" s="39"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="38"/>
+      <c r="BB29" s="38"/>
+      <c r="BC29" s="38"/>
+      <c r="BD29" s="39"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="38"/>
+      <c r="BG29" s="38"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="39"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:AJ12"/>
-    <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="AY12:BD12"/>
-    <mergeCell ref="BE12:BI12"/>
-    <mergeCell ref="BJ12:BM12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="BJ7:BM7"/>
+  <mergeCells count="129">
+    <mergeCell ref="AY19:BD19"/>
+    <mergeCell ref="BE19:BI19"/>
+    <mergeCell ref="BJ19:BM19"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="S19:AJ19"/>
+    <mergeCell ref="AK19:AX19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="S20:AJ20"/>
+    <mergeCell ref="AK20:AX20"/>
+    <mergeCell ref="AY20:BD20"/>
+    <mergeCell ref="BE20:BI20"/>
+    <mergeCell ref="BJ20:BM20"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:K8"/>
     <mergeCell ref="L8:R8"/>
@@ -3894,10 +4551,6 @@
     <mergeCell ref="L7:R7"/>
     <mergeCell ref="S7:AJ7"/>
     <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="O5:T5"/>
@@ -3906,16 +4559,102 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="A2:Z3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:N4"/>
     <mergeCell ref="O4:T4"/>
     <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BE18:BI18"/>
+    <mergeCell ref="BJ18:BM18"/>
+    <mergeCell ref="S18:AJ18"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="AK18:AX18"/>
+    <mergeCell ref="AY18:BD18"/>
+    <mergeCell ref="AK16:AX16"/>
+    <mergeCell ref="AK17:AX17"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="AY13:BD13"/>
+    <mergeCell ref="AY15:BD15"/>
+    <mergeCell ref="AY16:BD16"/>
+    <mergeCell ref="AY17:BD17"/>
+    <mergeCell ref="AK12:AX12"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AK13:AX13"/>
+    <mergeCell ref="BE16:BI16"/>
+    <mergeCell ref="BE17:BI17"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="BJ13:BM13"/>
+    <mergeCell ref="BJ15:BM15"/>
+    <mergeCell ref="BJ16:BM16"/>
+    <mergeCell ref="BJ17:BM17"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BE13:BI13"/>
+    <mergeCell ref="S16:AJ16"/>
+    <mergeCell ref="S17:AJ17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:AJ12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="S13:AJ13"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:AJ14"/>
+    <mergeCell ref="AK14:AX14"/>
+    <mergeCell ref="AY14:BD14"/>
+    <mergeCell ref="BE14:BI14"/>
+    <mergeCell ref="BJ14:BM14"/>
+    <mergeCell ref="AY12:BD12"/>
+    <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="S15:AJ15"/>
+    <mergeCell ref="BE15:BI15"/>
+    <mergeCell ref="AK15:AX15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3927,149 +4666,149 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="36"/>
-    <col min="4" max="4" width="20.25" style="36" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="36" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="36"/>
+    <col min="4" max="4" width="20.19921875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" style="36" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="20.75" style="36" customWidth="1"/>
-    <col min="10" max="13" width="9.625" style="36"/>
-    <col min="14" max="14" width="10.625" style="36" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="36"/>
+    <col min="8" max="8" width="14.3984375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="20.69921875" style="36" customWidth="1"/>
+    <col min="10" max="13" width="9.59765625" style="36"/>
+    <col min="14" max="14" width="10.59765625" style="36" customWidth="1"/>
+    <col min="15" max="15" width="9.59765625" style="36"/>
     <col min="16" max="16" width="16.5" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="9.625" style="36"/>
+    <col min="17" max="16384" width="9.59765625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="19.95" customHeight="1"/>
     <row r="3" spans="1:20" ht="36">
       <c r="A3" s="44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="D3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="E3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="G3" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18">
+      <c r="B4" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="41" t="s">
+      <c r="Q4" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="18.75">
-      <c r="B4" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>62</v>
-      </c>
       <c r="R4" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S4" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T4" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報新規登録.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報新規登録.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369B124D-561E-4CE3-A936-088A489048F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97904F5E-7E24-44DE-A750-92CB3E6FACCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -488,6 +488,183 @@
     <t>メールの入力タイプ</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員情報リスト画面から、新規登録ボタン押す</t>
+    <rPh sb="0" eb="4">
+      <t>シャインジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員IDに未入力　　　　　　　　　　　　　　　　　　　　　　　　　　　「登録」ボタン押す</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員IDにあいうえおを入力　　　　　　　　　　　　　　　　　　　　　　「登録」ボタン押す　　</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員氏名に未入力　　　　　　　　　　　　　　　　　　　　　　　　　　「登録」ボタン押す</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員IDに「AAAAAAAA」を入力　　　　　　　　　　　　　　　　　　　　　「登録」ボタン押す</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員氏名に「AAAAAAAAAAAAAAAAAAAAA」を入力　　　　　　　　「登録」ボタン押す</t>
+    <rPh sb="0" eb="4">
+      <t>シャインシメイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードに未入力　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　「登録」ボタン押す</t>
+    <rPh sb="6" eb="9">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードに「ABCXYZ1」　　　　　　　　　　　　　　　　　　　　　　　　　　　　　「登録」ボタン押す</t>
+    <rPh sb="45" eb="47">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードに「あいうえお」を入力　　　　　　　　　　　　　　　　　　　　「登録」ボタン押す</t>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールに未入力　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　「登録」ボタン押す</t>
+    <rPh sb="4" eb="7">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールに「abc@gmail.com」を入力　　　　　　　　　　　　　　　　　　　　　　「登録」ボタン押す</t>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールに「あいうえお＠ｇまい.com」を入力　　　　　　　　　　　　　　「登録」ボタン押す</t>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1352,18 +1529,186 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1371,45 +1716,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,146 +1736,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2482,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19:AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -2564,1358 +2741,1358 @@
       <c r="BM1" s="30"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
       <c r="BM2" s="30"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="100" t="s">
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="103" t="s">
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="106" t="s">
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="120"/>
+      <c r="AW4" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="108"/>
-      <c r="AZ4" s="109">
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="123"/>
+      <c r="AZ4" s="124">
         <v>45096</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="106" t="s">
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="119"/>
+      <c r="BD4" s="119"/>
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="BG4" s="107"/>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="109" t="s">
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
+      <c r="BJ4" s="119"/>
+      <c r="BK4" s="119"/>
+      <c r="BL4" s="119"/>
       <c r="BM4" s="32"/>
     </row>
     <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="110" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="116"/>
-      <c r="AG5" s="116"/>
-      <c r="AH5" s="116"/>
-      <c r="AI5" s="116"/>
-      <c r="AJ5" s="116"/>
-      <c r="AK5" s="116"/>
-      <c r="AL5" s="116"/>
-      <c r="AM5" s="116"/>
-      <c r="AN5" s="116"/>
-      <c r="AO5" s="116"/>
-      <c r="AP5" s="116"/>
-      <c r="AQ5" s="116"/>
-      <c r="AR5" s="116"/>
-      <c r="AS5" s="116"/>
-      <c r="AT5" s="116"/>
-      <c r="AU5" s="116"/>
-      <c r="AV5" s="117"/>
-      <c r="AW5" s="110" t="s">
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
+      <c r="AU5" s="106"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="AX5" s="111"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="111"/>
-      <c r="BA5" s="111"/>
-      <c r="BB5" s="111"/>
-      <c r="BC5" s="111"/>
-      <c r="BD5" s="111"/>
-      <c r="BE5" s="111"/>
-      <c r="BF5" s="110" t="s">
+      <c r="AX5" s="101"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="101"/>
+      <c r="BA5" s="101"/>
+      <c r="BB5" s="101"/>
+      <c r="BC5" s="101"/>
+      <c r="BD5" s="101"/>
+      <c r="BE5" s="101"/>
+      <c r="BF5" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="BG5" s="111"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="111"/>
-      <c r="BJ5" s="116"/>
-      <c r="BK5" s="116"/>
-      <c r="BL5" s="116"/>
+      <c r="BG5" s="101"/>
+      <c r="BH5" s="102"/>
+      <c r="BI5" s="101"/>
+      <c r="BJ5" s="106"/>
+      <c r="BK5" s="106"/>
+      <c r="BL5" s="106"/>
       <c r="BM5" s="25"/>
     </row>
     <row r="7" spans="1:65" s="33" customFormat="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="118" t="s">
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="118" t="s">
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="119"/>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="119"/>
-      <c r="AU7" s="119"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="120"/>
-      <c r="AY7" s="118" t="s">
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="98"/>
+      <c r="AQ7" s="98"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="99"/>
+      <c r="AY7" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
-      <c r="BC7" s="119"/>
-      <c r="BD7" s="120"/>
-      <c r="BE7" s="118" t="s">
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="99"/>
+      <c r="BE7" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="BF7" s="119"/>
-      <c r="BG7" s="119"/>
-      <c r="BH7" s="119"/>
-      <c r="BI7" s="120"/>
-      <c r="BJ7" s="118" t="s">
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="98"/>
+      <c r="BI7" s="99"/>
+      <c r="BJ7" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="BK7" s="119"/>
-      <c r="BL7" s="119"/>
-      <c r="BM7" s="120"/>
+      <c r="BK7" s="98"/>
+      <c r="BL7" s="98"/>
+      <c r="BM7" s="99"/>
     </row>
     <row r="8" spans="1:65">
-      <c r="A8" s="78">
+      <c r="A8" s="74">
         <v>1</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="68" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="65" t="s">
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="94"/>
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="95"/>
+      <c r="BE8" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="69"/>
+      <c r="BH8" s="69"/>
+      <c r="BI8" s="70"/>
+      <c r="BJ8" s="71">
+        <v>45441</v>
+      </c>
+      <c r="BK8" s="69"/>
+      <c r="BL8" s="69"/>
+      <c r="BM8" s="70"/>
+    </row>
+    <row r="9" spans="1:65" s="45" customFormat="1" ht="37.799999999999997" customHeight="1">
+      <c r="A9" s="81">
+        <v>2</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="132"/>
+      <c r="AF9" s="132"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="132"/>
+      <c r="AJ9" s="133"/>
+      <c r="AK9" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL9" s="125"/>
+      <c r="AM9" s="125"/>
+      <c r="AN9" s="125"/>
+      <c r="AO9" s="125"/>
+      <c r="AP9" s="125"/>
+      <c r="AQ9" s="125"/>
+      <c r="AR9" s="125"/>
+      <c r="AS9" s="125"/>
+      <c r="AT9" s="125"/>
+      <c r="AU9" s="125"/>
+      <c r="AV9" s="125"/>
+      <c r="AW9" s="125"/>
+      <c r="AX9" s="126"/>
+      <c r="AY9" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ9" s="128"/>
+      <c r="BA9" s="128"/>
+      <c r="BB9" s="128"/>
+      <c r="BC9" s="128"/>
+      <c r="BD9" s="129"/>
+      <c r="BE9" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF9" s="125"/>
+      <c r="BG9" s="125"/>
+      <c r="BH9" s="125"/>
+      <c r="BI9" s="126"/>
+      <c r="BJ9" s="130">
+        <v>45442</v>
+      </c>
+      <c r="BK9" s="125"/>
+      <c r="BL9" s="125"/>
+      <c r="BM9" s="126"/>
+    </row>
+    <row r="10" spans="1:65" s="40" customFormat="1" ht="36" customHeight="1">
+      <c r="A10" s="74">
+        <v>3</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="132"/>
+      <c r="AF10" s="132"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="133"/>
+      <c r="AK10" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL10" s="125"/>
+      <c r="AM10" s="125"/>
+      <c r="AN10" s="125"/>
+      <c r="AO10" s="125"/>
+      <c r="AP10" s="125"/>
+      <c r="AQ10" s="125"/>
+      <c r="AR10" s="125"/>
+      <c r="AS10" s="125"/>
+      <c r="AT10" s="125"/>
+      <c r="AU10" s="125"/>
+      <c r="AV10" s="125"/>
+      <c r="AW10" s="125"/>
+      <c r="AX10" s="126"/>
+      <c r="AY10" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="94"/>
+      <c r="BC10" s="94"/>
+      <c r="BD10" s="95"/>
+      <c r="BE10" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF10" s="69"/>
+      <c r="BG10" s="69"/>
+      <c r="BH10" s="69"/>
+      <c r="BI10" s="70"/>
+      <c r="BJ10" s="71">
+        <v>45443</v>
+      </c>
+      <c r="BK10" s="69"/>
+      <c r="BL10" s="69"/>
+      <c r="BM10" s="70"/>
+    </row>
+    <row r="11" spans="1:65" s="40" customFormat="1" ht="48" customHeight="1">
+      <c r="A11" s="81">
+        <v>4</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="132"/>
+      <c r="AF11" s="132"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="133"/>
+      <c r="AK11" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL11" s="125"/>
+      <c r="AM11" s="125"/>
+      <c r="AN11" s="125"/>
+      <c r="AO11" s="125"/>
+      <c r="AP11" s="125"/>
+      <c r="AQ11" s="125"/>
+      <c r="AR11" s="125"/>
+      <c r="AS11" s="125"/>
+      <c r="AT11" s="125"/>
+      <c r="AU11" s="125"/>
+      <c r="AV11" s="125"/>
+      <c r="AW11" s="125"/>
+      <c r="AX11" s="126"/>
+      <c r="AY11" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ11" s="94"/>
+      <c r="BA11" s="94"/>
+      <c r="BB11" s="94"/>
+      <c r="BC11" s="94"/>
+      <c r="BD11" s="95"/>
+      <c r="BE11" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF11" s="69"/>
+      <c r="BG11" s="69"/>
+      <c r="BH11" s="69"/>
+      <c r="BI11" s="70"/>
+      <c r="BJ11" s="71">
+        <v>45444</v>
+      </c>
+      <c r="BK11" s="69"/>
+      <c r="BL11" s="69"/>
+      <c r="BM11" s="70"/>
+    </row>
+    <row r="12" spans="1:65" s="40" customFormat="1" ht="35.4" customHeight="1">
+      <c r="A12" s="74">
+        <v>8</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="132"/>
+      <c r="AE12" s="132"/>
+      <c r="AF12" s="132"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="132"/>
+      <c r="AJ12" s="133"/>
+      <c r="AK12" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL12" s="125"/>
+      <c r="AM12" s="125"/>
+      <c r="AN12" s="125"/>
+      <c r="AO12" s="125"/>
+      <c r="AP12" s="125"/>
+      <c r="AQ12" s="125"/>
+      <c r="AR12" s="125"/>
+      <c r="AS12" s="125"/>
+      <c r="AT12" s="125"/>
+      <c r="AU12" s="125"/>
+      <c r="AV12" s="125"/>
+      <c r="AW12" s="125"/>
+      <c r="AX12" s="126"/>
+      <c r="AY12" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="94"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF12" s="69"/>
+      <c r="BG12" s="69"/>
+      <c r="BH12" s="69"/>
+      <c r="BI12" s="70"/>
+      <c r="BJ12" s="71">
+        <v>45448</v>
+      </c>
+      <c r="BK12" s="69"/>
+      <c r="BL12" s="69"/>
+      <c r="BM12" s="70"/>
+    </row>
+    <row r="13" spans="1:65" s="40" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A13" s="81">
+        <v>6</v>
+      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="132"/>
+      <c r="AF13" s="132"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="132"/>
+      <c r="AJ13" s="133"/>
+      <c r="AK13" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" s="125"/>
+      <c r="AM13" s="125"/>
+      <c r="AN13" s="125"/>
+      <c r="AO13" s="125"/>
+      <c r="AP13" s="125"/>
+      <c r="AQ13" s="125"/>
+      <c r="AR13" s="125"/>
+      <c r="AS13" s="125"/>
+      <c r="AT13" s="125"/>
+      <c r="AU13" s="125"/>
+      <c r="AV13" s="125"/>
+      <c r="AW13" s="125"/>
+      <c r="AX13" s="126"/>
+      <c r="AY13" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="94"/>
+      <c r="BC13" s="94"/>
+      <c r="BD13" s="95"/>
+      <c r="BE13" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF13" s="69"/>
+      <c r="BG13" s="69"/>
+      <c r="BH13" s="69"/>
+      <c r="BI13" s="70"/>
+      <c r="BJ13" s="71">
+        <v>45446</v>
+      </c>
+      <c r="BK13" s="69"/>
+      <c r="BL13" s="69"/>
+      <c r="BM13" s="70"/>
+    </row>
+    <row r="14" spans="1:65" s="40" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A14" s="81">
+        <v>7</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="132"/>
+      <c r="AE14" s="132"/>
+      <c r="AF14" s="132"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="132"/>
+      <c r="AJ14" s="133"/>
+      <c r="AK14" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL14" s="125"/>
+      <c r="AM14" s="125"/>
+      <c r="AN14" s="125"/>
+      <c r="AO14" s="125"/>
+      <c r="AP14" s="125"/>
+      <c r="AQ14" s="125"/>
+      <c r="AR14" s="125"/>
+      <c r="AS14" s="125"/>
+      <c r="AT14" s="125"/>
+      <c r="AU14" s="125"/>
+      <c r="AV14" s="125"/>
+      <c r="AW14" s="125"/>
+      <c r="AX14" s="126"/>
+      <c r="AY14" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="94"/>
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="95"/>
+      <c r="BE14" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF14" s="69"/>
+      <c r="BG14" s="69"/>
+      <c r="BH14" s="69"/>
+      <c r="BI14" s="70"/>
+      <c r="BJ14" s="71">
+        <v>45447</v>
+      </c>
+      <c r="BK14" s="69"/>
+      <c r="BL14" s="69"/>
+      <c r="BM14" s="70"/>
+    </row>
+    <row r="15" spans="1:65" s="40" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A15" s="74">
+        <v>7</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="132"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="132"/>
+      <c r="AE15" s="132"/>
+      <c r="AF15" s="132"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="132"/>
+      <c r="AJ15" s="133"/>
+      <c r="AK15" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL15" s="125"/>
+      <c r="AM15" s="125"/>
+      <c r="AN15" s="125"/>
+      <c r="AO15" s="125"/>
+      <c r="AP15" s="125"/>
+      <c r="AQ15" s="125"/>
+      <c r="AR15" s="125"/>
+      <c r="AS15" s="125"/>
+      <c r="AT15" s="125"/>
+      <c r="AU15" s="125"/>
+      <c r="AV15" s="125"/>
+      <c r="AW15" s="125"/>
+      <c r="AX15" s="126"/>
+      <c r="AY15" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ15" s="94"/>
+      <c r="BA15" s="94"/>
+      <c r="BB15" s="94"/>
+      <c r="BC15" s="94"/>
+      <c r="BD15" s="95"/>
+      <c r="BE15" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF15" s="69"/>
+      <c r="BG15" s="69"/>
+      <c r="BH15" s="69"/>
+      <c r="BI15" s="70"/>
+      <c r="BJ15" s="71">
+        <v>45447</v>
+      </c>
+      <c r="BK15" s="69"/>
+      <c r="BL15" s="69"/>
+      <c r="BM15" s="70"/>
+    </row>
+    <row r="16" spans="1:65" s="40" customFormat="1" ht="36.6" customHeight="1">
+      <c r="A16" s="81">
+        <v>8</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="132"/>
+      <c r="AE16" s="132"/>
+      <c r="AF16" s="132"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="132"/>
+      <c r="AJ16" s="133"/>
+      <c r="AK16" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL16" s="125"/>
+      <c r="AM16" s="125"/>
+      <c r="AN16" s="125"/>
+      <c r="AO16" s="125"/>
+      <c r="AP16" s="125"/>
+      <c r="AQ16" s="125"/>
+      <c r="AR16" s="125"/>
+      <c r="AS16" s="125"/>
+      <c r="AT16" s="125"/>
+      <c r="AU16" s="125"/>
+      <c r="AV16" s="125"/>
+      <c r="AW16" s="125"/>
+      <c r="AX16" s="126"/>
+      <c r="AY16" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ16" s="94"/>
+      <c r="BA16" s="94"/>
+      <c r="BB16" s="94"/>
+      <c r="BC16" s="94"/>
+      <c r="BD16" s="95"/>
+      <c r="BE16" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF16" s="69"/>
+      <c r="BG16" s="69"/>
+      <c r="BH16" s="69"/>
+      <c r="BI16" s="70"/>
+      <c r="BJ16" s="71">
+        <v>45448</v>
+      </c>
+      <c r="BK16" s="69"/>
+      <c r="BL16" s="69"/>
+      <c r="BM16" s="70"/>
+    </row>
+    <row r="17" spans="1:65" s="40" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A17" s="74">
+        <v>9</v>
+      </c>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="132"/>
+      <c r="AE17" s="132"/>
+      <c r="AF17" s="132"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="132"/>
+      <c r="AJ17" s="133"/>
+      <c r="AK17" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL17" s="125"/>
+      <c r="AM17" s="125"/>
+      <c r="AN17" s="125"/>
+      <c r="AO17" s="125"/>
+      <c r="AP17" s="125"/>
+      <c r="AQ17" s="125"/>
+      <c r="AR17" s="125"/>
+      <c r="AS17" s="125"/>
+      <c r="AT17" s="125"/>
+      <c r="AU17" s="125"/>
+      <c r="AV17" s="125"/>
+      <c r="AW17" s="125"/>
+      <c r="AX17" s="126"/>
+      <c r="AY17" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ17" s="94"/>
+      <c r="BA17" s="94"/>
+      <c r="BB17" s="94"/>
+      <c r="BC17" s="94"/>
+      <c r="BD17" s="95"/>
+      <c r="BE17" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF17" s="69"/>
+      <c r="BG17" s="69"/>
+      <c r="BH17" s="69"/>
+      <c r="BI17" s="70"/>
+      <c r="BJ17" s="71">
+        <v>45449</v>
+      </c>
+      <c r="BK17" s="69"/>
+      <c r="BL17" s="69"/>
+      <c r="BM17" s="70"/>
+    </row>
+    <row r="18" spans="1:65" s="40" customFormat="1" ht="55.8" customHeight="1">
+      <c r="A18" s="81">
+        <v>10</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="132"/>
+      <c r="AE18" s="132"/>
+      <c r="AF18" s="132"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="132"/>
+      <c r="AJ18" s="133"/>
+      <c r="AK18" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL18" s="125"/>
+      <c r="AM18" s="125"/>
+      <c r="AN18" s="125"/>
+      <c r="AO18" s="125"/>
+      <c r="AP18" s="125"/>
+      <c r="AQ18" s="125"/>
+      <c r="AR18" s="125"/>
+      <c r="AS18" s="125"/>
+      <c r="AT18" s="125"/>
+      <c r="AU18" s="125"/>
+      <c r="AV18" s="125"/>
+      <c r="AW18" s="125"/>
+      <c r="AX18" s="126"/>
+      <c r="AY18" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ18" s="94"/>
+      <c r="BA18" s="94"/>
+      <c r="BB18" s="94"/>
+      <c r="BC18" s="94"/>
+      <c r="BD18" s="95"/>
+      <c r="BE18" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF18" s="69"/>
+      <c r="BG18" s="69"/>
+      <c r="BH18" s="69"/>
+      <c r="BI18" s="70"/>
+      <c r="BJ18" s="71">
+        <v>45442</v>
+      </c>
+      <c r="BK18" s="69"/>
+      <c r="BL18" s="69"/>
+      <c r="BM18" s="70"/>
+    </row>
+    <row r="19" spans="1:65" ht="42" customHeight="1">
+      <c r="A19" s="74">
+        <v>11</v>
+      </c>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="132"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="132"/>
+      <c r="AE19" s="132"/>
+      <c r="AF19" s="132"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="132"/>
+      <c r="AJ19" s="133"/>
+      <c r="AK19" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ19" s="66"/>
+      <c r="BA19" s="66"/>
+      <c r="BB19" s="66"/>
+      <c r="BC19" s="66"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF19" s="69"/>
+      <c r="BG19" s="69"/>
+      <c r="BH19" s="69"/>
+      <c r="BI19" s="70"/>
+      <c r="BJ19" s="71">
+        <v>45441</v>
+      </c>
+      <c r="BK19" s="69"/>
+      <c r="BL19" s="69"/>
+      <c r="BM19" s="70"/>
+    </row>
+    <row r="20" spans="1:65">
+      <c r="A20" s="81">
+        <v>12</v>
+      </c>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="75"/>
-      <c r="AQ8" s="75"/>
-      <c r="AR8" s="75"/>
-      <c r="AS8" s="75"/>
-      <c r="AT8" s="75"/>
-      <c r="AU8" s="75"/>
-      <c r="AV8" s="75"/>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="76"/>
-      <c r="AY8" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="74" t="s">
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="86"/>
+      <c r="AP20" s="86"/>
+      <c r="AQ20" s="86"/>
+      <c r="AR20" s="86"/>
+      <c r="AS20" s="86"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="86"/>
+      <c r="AV20" s="86"/>
+      <c r="AW20" s="86"/>
+      <c r="AX20" s="87"/>
+      <c r="AY20" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ20" s="83"/>
+      <c r="BA20" s="83"/>
+      <c r="BB20" s="83"/>
+      <c r="BC20" s="83"/>
+      <c r="BD20" s="84"/>
+      <c r="BE20" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="BF8" s="75"/>
-      <c r="BG8" s="75"/>
-      <c r="BH8" s="75"/>
-      <c r="BI8" s="76"/>
-      <c r="BJ8" s="77">
+      <c r="BF20" s="69"/>
+      <c r="BG20" s="69"/>
+      <c r="BH20" s="69"/>
+      <c r="BI20" s="70"/>
+      <c r="BJ20" s="71">
         <v>45441</v>
       </c>
-      <c r="BK8" s="75"/>
-      <c r="BL8" s="75"/>
-      <c r="BM8" s="76"/>
-    </row>
-    <row r="9" spans="1:65" s="45" customFormat="1" ht="37.799999999999997" customHeight="1">
-      <c r="A9" s="83">
-        <v>2</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL9" s="69"/>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="69"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69"/>
-      <c r="AR9" s="69"/>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69"/>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="69"/>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="70"/>
-      <c r="AY9" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="90"/>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF9" s="69"/>
-      <c r="BG9" s="69"/>
-      <c r="BH9" s="69"/>
-      <c r="BI9" s="70"/>
-      <c r="BJ9" s="88">
-        <v>45442</v>
-      </c>
-      <c r="BK9" s="69"/>
-      <c r="BL9" s="69"/>
-      <c r="BM9" s="70"/>
-    </row>
-    <row r="10" spans="1:65" s="40" customFormat="1" ht="36" customHeight="1">
-      <c r="A10" s="78">
-        <v>3</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="70"/>
-      <c r="AY10" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ10" s="72"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="72"/>
-      <c r="BC10" s="72"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="76"/>
-      <c r="BJ10" s="77">
-        <v>45443</v>
-      </c>
-      <c r="BK10" s="75"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="76"/>
-    </row>
-    <row r="11" spans="1:65" s="40" customFormat="1" ht="48" customHeight="1">
-      <c r="A11" s="83">
-        <v>4</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="70"/>
-      <c r="AY11" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ11" s="72"/>
-      <c r="BA11" s="72"/>
-      <c r="BB11" s="72"/>
-      <c r="BC11" s="72"/>
-      <c r="BD11" s="73"/>
-      <c r="BE11" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF11" s="75"/>
-      <c r="BG11" s="75"/>
-      <c r="BH11" s="75"/>
-      <c r="BI11" s="76"/>
-      <c r="BJ11" s="77">
-        <v>45444</v>
-      </c>
-      <c r="BK11" s="75"/>
-      <c r="BL11" s="75"/>
-      <c r="BM11" s="76"/>
-    </row>
-    <row r="12" spans="1:65" s="40" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A12" s="78">
-        <v>8</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="70"/>
-      <c r="AY12" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ12" s="72"/>
-      <c r="BA12" s="72"/>
-      <c r="BB12" s="72"/>
-      <c r="BC12" s="72"/>
-      <c r="BD12" s="73"/>
-      <c r="BE12" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF12" s="75"/>
-      <c r="BG12" s="75"/>
-      <c r="BH12" s="75"/>
-      <c r="BI12" s="76"/>
-      <c r="BJ12" s="77">
-        <v>45448</v>
-      </c>
-      <c r="BK12" s="75"/>
-      <c r="BL12" s="75"/>
-      <c r="BM12" s="76"/>
-    </row>
-    <row r="13" spans="1:65" s="40" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A13" s="83">
-        <v>6</v>
-      </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="70"/>
-      <c r="AY13" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ13" s="72"/>
-      <c r="BA13" s="72"/>
-      <c r="BB13" s="72"/>
-      <c r="BC13" s="72"/>
-      <c r="BD13" s="73"/>
-      <c r="BE13" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF13" s="75"/>
-      <c r="BG13" s="75"/>
-      <c r="BH13" s="75"/>
-      <c r="BI13" s="76"/>
-      <c r="BJ13" s="77">
-        <v>45446</v>
-      </c>
-      <c r="BK13" s="75"/>
-      <c r="BL13" s="75"/>
-      <c r="BM13" s="76"/>
-    </row>
-    <row r="14" spans="1:65" s="40" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A14" s="83">
-        <v>7</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="69"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69"/>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="70"/>
-      <c r="AY14" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="72"/>
-      <c r="BB14" s="72"/>
-      <c r="BC14" s="72"/>
-      <c r="BD14" s="73"/>
-      <c r="BE14" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF14" s="75"/>
-      <c r="BG14" s="75"/>
-      <c r="BH14" s="75"/>
-      <c r="BI14" s="76"/>
-      <c r="BJ14" s="77">
-        <v>45447</v>
-      </c>
-      <c r="BK14" s="75"/>
-      <c r="BL14" s="75"/>
-      <c r="BM14" s="76"/>
-    </row>
-    <row r="15" spans="1:65" s="40" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A15" s="78">
-        <v>7</v>
-      </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="70"/>
-      <c r="AY15" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="72"/>
-      <c r="BB15" s="72"/>
-      <c r="BC15" s="72"/>
-      <c r="BD15" s="73"/>
-      <c r="BE15" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF15" s="75"/>
-      <c r="BG15" s="75"/>
-      <c r="BH15" s="75"/>
-      <c r="BI15" s="76"/>
-      <c r="BJ15" s="77">
-        <v>45447</v>
-      </c>
-      <c r="BK15" s="75"/>
-      <c r="BL15" s="75"/>
-      <c r="BM15" s="76"/>
-    </row>
-    <row r="16" spans="1:65" s="40" customFormat="1" ht="36.6" customHeight="1">
-      <c r="A16" s="83">
-        <v>8</v>
-      </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="70"/>
-      <c r="AY16" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="72"/>
-      <c r="BB16" s="72"/>
-      <c r="BC16" s="72"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF16" s="75"/>
-      <c r="BG16" s="75"/>
-      <c r="BH16" s="75"/>
-      <c r="BI16" s="76"/>
-      <c r="BJ16" s="77">
-        <v>45448</v>
-      </c>
-      <c r="BK16" s="75"/>
-      <c r="BL16" s="75"/>
-      <c r="BM16" s="76"/>
-    </row>
-    <row r="17" spans="1:65" s="40" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A17" s="78">
-        <v>9</v>
-      </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ17" s="72"/>
-      <c r="BA17" s="72"/>
-      <c r="BB17" s="72"/>
-      <c r="BC17" s="72"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF17" s="75"/>
-      <c r="BG17" s="75"/>
-      <c r="BH17" s="75"/>
-      <c r="BI17" s="76"/>
-      <c r="BJ17" s="77">
-        <v>45449</v>
-      </c>
-      <c r="BK17" s="75"/>
-      <c r="BL17" s="75"/>
-      <c r="BM17" s="76"/>
-    </row>
-    <row r="18" spans="1:65" s="40" customFormat="1" ht="55.8" customHeight="1">
-      <c r="A18" s="83">
-        <v>10</v>
-      </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ18" s="72"/>
-      <c r="BA18" s="72"/>
-      <c r="BB18" s="72"/>
-      <c r="BC18" s="72"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF18" s="75"/>
-      <c r="BG18" s="75"/>
-      <c r="BH18" s="75"/>
-      <c r="BI18" s="76"/>
-      <c r="BJ18" s="77">
-        <v>45442</v>
-      </c>
-      <c r="BK18" s="75"/>
-      <c r="BL18" s="75"/>
-      <c r="BM18" s="76"/>
-    </row>
-    <row r="19" spans="1:65" ht="42" customHeight="1">
-      <c r="A19" s="78">
-        <v>11</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="75"/>
-      <c r="AN19" s="75"/>
-      <c r="AO19" s="75"/>
-      <c r="AP19" s="75"/>
-      <c r="AQ19" s="75"/>
-      <c r="AR19" s="75"/>
-      <c r="AS19" s="75"/>
-      <c r="AT19" s="75"/>
-      <c r="AU19" s="75"/>
-      <c r="AV19" s="75"/>
-      <c r="AW19" s="75"/>
-      <c r="AX19" s="76"/>
-      <c r="AY19" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ19" s="123"/>
-      <c r="BA19" s="123"/>
-      <c r="BB19" s="123"/>
-      <c r="BC19" s="123"/>
-      <c r="BD19" s="124"/>
-      <c r="BE19" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF19" s="75"/>
-      <c r="BG19" s="75"/>
-      <c r="BH19" s="75"/>
-      <c r="BI19" s="76"/>
-      <c r="BJ19" s="77">
-        <v>45441</v>
-      </c>
-      <c r="BK19" s="75"/>
-      <c r="BL19" s="75"/>
-      <c r="BM19" s="76"/>
-    </row>
-    <row r="20" spans="1:65">
-      <c r="A20" s="83">
-        <v>12</v>
-      </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL20" s="130"/>
-      <c r="AM20" s="130"/>
-      <c r="AN20" s="130"/>
-      <c r="AO20" s="130"/>
-      <c r="AP20" s="130"/>
-      <c r="AQ20" s="130"/>
-      <c r="AR20" s="130"/>
-      <c r="AS20" s="130"/>
-      <c r="AT20" s="130"/>
-      <c r="AU20" s="130"/>
-      <c r="AV20" s="130"/>
-      <c r="AW20" s="130"/>
-      <c r="AX20" s="131"/>
-      <c r="AY20" s="132" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ20" s="127"/>
-      <c r="BA20" s="127"/>
-      <c r="BB20" s="127"/>
-      <c r="BC20" s="127"/>
-      <c r="BD20" s="128"/>
-      <c r="BE20" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF20" s="75"/>
-      <c r="BG20" s="75"/>
-      <c r="BH20" s="75"/>
-      <c r="BI20" s="76"/>
-      <c r="BJ20" s="77">
-        <v>45441</v>
-      </c>
-      <c r="BK20" s="133"/>
-      <c r="BL20" s="133"/>
-      <c r="BM20" s="134"/>
+      <c r="BK20" s="89"/>
+      <c r="BL20" s="89"/>
+      <c r="BM20" s="90"/>
     </row>
     <row r="21" spans="1:65">
       <c r="A21" s="34"/>
@@ -4522,55 +4699,62 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="AY19:BD19"/>
-    <mergeCell ref="BE19:BI19"/>
-    <mergeCell ref="BJ19:BM19"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="S19:AJ19"/>
-    <mergeCell ref="AK19:AX19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="S20:AJ20"/>
-    <mergeCell ref="AK20:AX20"/>
-    <mergeCell ref="AY20:BD20"/>
-    <mergeCell ref="BE20:BI20"/>
-    <mergeCell ref="BJ20:BM20"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="S8:AJ8"/>
-    <mergeCell ref="AK8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BE8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="S7:AJ7"/>
-    <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="S15:AJ15"/>
+    <mergeCell ref="BE15:BI15"/>
+    <mergeCell ref="AK15:AX15"/>
+    <mergeCell ref="S16:AJ16"/>
+    <mergeCell ref="S17:AJ17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:AJ12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="S13:AJ13"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:AJ14"/>
+    <mergeCell ref="BE16:BI16"/>
+    <mergeCell ref="BE17:BI17"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="BJ13:BM13"/>
+    <mergeCell ref="BJ15:BM15"/>
+    <mergeCell ref="BJ16:BM16"/>
+    <mergeCell ref="BJ17:BM17"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BE13:BI13"/>
+    <mergeCell ref="BE14:BI14"/>
+    <mergeCell ref="BJ14:BM14"/>
+    <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="AY13:BD13"/>
+    <mergeCell ref="AY15:BD15"/>
+    <mergeCell ref="AY16:BD16"/>
+    <mergeCell ref="AY17:BD17"/>
+    <mergeCell ref="AK12:AX12"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AK13:AX13"/>
+    <mergeCell ref="AK14:AX14"/>
+    <mergeCell ref="AY14:BD14"/>
+    <mergeCell ref="AY12:BD12"/>
     <mergeCell ref="BE18:BI18"/>
     <mergeCell ref="BJ18:BM18"/>
     <mergeCell ref="S18:AJ18"/>
@@ -4595,62 +4779,55 @@
     <mergeCell ref="AY9:BD9"/>
     <mergeCell ref="AY10:BD10"/>
     <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="AY13:BD13"/>
-    <mergeCell ref="AY15:BD15"/>
-    <mergeCell ref="AY16:BD16"/>
-    <mergeCell ref="AY17:BD17"/>
-    <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AK13:AX13"/>
-    <mergeCell ref="BE16:BI16"/>
-    <mergeCell ref="BE17:BI17"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="BJ13:BM13"/>
-    <mergeCell ref="BJ15:BM15"/>
-    <mergeCell ref="BJ16:BM16"/>
-    <mergeCell ref="BJ17:BM17"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BE13:BI13"/>
-    <mergeCell ref="S16:AJ16"/>
-    <mergeCell ref="S17:AJ17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:AJ12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="S13:AJ13"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="S14:AJ14"/>
-    <mergeCell ref="AK14:AX14"/>
-    <mergeCell ref="AY14:BD14"/>
-    <mergeCell ref="BE14:BI14"/>
-    <mergeCell ref="BJ14:BM14"/>
-    <mergeCell ref="AY12:BD12"/>
-    <mergeCell ref="BJ12:BM12"/>
-    <mergeCell ref="BE12:BI12"/>
-    <mergeCell ref="S15:AJ15"/>
-    <mergeCell ref="BE15:BI15"/>
-    <mergeCell ref="AK15:AX15"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="BJ7:BM7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S8:AJ8"/>
+    <mergeCell ref="AK8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BE8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="S7:AJ7"/>
+    <mergeCell ref="AK7:AX7"/>
+    <mergeCell ref="AY19:BD19"/>
+    <mergeCell ref="BE19:BI19"/>
+    <mergeCell ref="BJ19:BM19"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="S19:AJ19"/>
+    <mergeCell ref="AK19:AX19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="S20:AJ20"/>
+    <mergeCell ref="AK20:AX20"/>
+    <mergeCell ref="AY20:BD20"/>
+    <mergeCell ref="BE20:BI20"/>
+    <mergeCell ref="BJ20:BM20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4663,7 +4840,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
